--- a/PythonResources/Data/Consumption/Sympheny/futu_CD_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_CD_coo.xlsx
@@ -631,7 +631,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>3.620775454245457</v>
+        <v>3.620775454245456</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -655,7 +655,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>8.89020943442565</v>
+        <v>8.890209434425648</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -663,7 +663,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>7.686051752828576</v>
+        <v>7.686051752828575</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -839,7 +839,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>25.94484637509225</v>
+        <v>25.94484637509224</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -887,7 +887,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>7.563020530798543</v>
+        <v>7.563020530798542</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1047,7 +1047,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>17.54669647394511</v>
+        <v>17.5466964739451</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1183,7 +1183,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>6.688584472744688</v>
+        <v>6.688584472744687</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1191,7 +1191,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>3.917685723513266</v>
+        <v>3.917685723513265</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>6.580382645270919</v>
+        <v>6.580382645270918</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1975,7 +1975,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>0.9843230439999274</v>
+        <v>0.9843230439999272</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -1991,7 +1991,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>5.171502241114234</v>
+        <v>5.171502241114233</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2023,7 +2023,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>7.982493108434527</v>
+        <v>7.982493108434526</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2399,7 +2399,7 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>6.312691558557646</v>
+        <v>6.312691558557645</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2407,7 +2407,7 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>5.823849066070522</v>
+        <v>5.823849066070521</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2607,7 +2607,7 @@
         <v>283</v>
       </c>
       <c r="B283">
-        <v>20.73474667818632</v>
+        <v>20.73474667818631</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2631,7 +2631,7 @@
         <v>286</v>
       </c>
       <c r="B286">
-        <v>10.04066946803504</v>
+        <v>10.04066946803503</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2767,7 +2767,7 @@
         <v>303</v>
       </c>
       <c r="B303">
-        <v>33.98567527377232</v>
+        <v>33.98567527377231</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2935,7 +2935,7 @@
         <v>324</v>
       </c>
       <c r="B324">
-        <v>29.19367951275182</v>
+        <v>29.19367951275181</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2967,7 +2967,7 @@
         <v>328</v>
       </c>
       <c r="B328">
-        <v>24.79075900123735</v>
+        <v>24.79075900123734</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3119,7 +3119,7 @@
         <v>347</v>
       </c>
       <c r="B347">
-        <v>8.182660627840226</v>
+        <v>8.182660627840225</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>353</v>
       </c>
       <c r="B353">
-        <v>4.429299835704376</v>
+        <v>4.429299835704375</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>374</v>
       </c>
       <c r="B374">
-        <v>55.18214071981765</v>
+        <v>55.18214071981764</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>375</v>
       </c>
       <c r="B375">
-        <v>54.16720640582954</v>
+        <v>54.16720640582953</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>379</v>
       </c>
       <c r="B379">
-        <v>21.43644666605318</v>
+        <v>21.43644666605317</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>380</v>
       </c>
       <c r="B380">
-        <v>9.974622978762316</v>
+        <v>9.974622978762314</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>393</v>
       </c>
       <c r="B393">
-        <v>5.978766417106909</v>
+        <v>5.978766417106908</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>396</v>
       </c>
       <c r="B396">
-        <v>5.261686061131102</v>
+        <v>5.261686061131101</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>403</v>
       </c>
       <c r="B403">
-        <v>5.717933192698312</v>
+        <v>5.717933192698311</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>417</v>
       </c>
       <c r="B417">
-        <v>6.366851086502262</v>
+        <v>6.366851086502261</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>420</v>
       </c>
       <c r="B420">
-        <v>0.893201396659342</v>
+        <v>0.8932013966593418</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>421</v>
       </c>
       <c r="B421">
-        <v>4.76613517256902</v>
+        <v>4.766135172569019</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>426</v>
       </c>
       <c r="B426">
-        <v>2.834978731834725</v>
+        <v>2.834978731834724</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3935,7 +3935,7 @@
         <v>449</v>
       </c>
       <c r="B449">
-        <v>6.407294889837528</v>
+        <v>6.407294889837527</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3943,7 +3943,7 @@
         <v>450</v>
       </c>
       <c r="B450">
-        <v>5.483915968327228</v>
+        <v>5.483915968327227</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3951,7 +3951,7 @@
         <v>451</v>
       </c>
       <c r="B451">
-        <v>3.157576677641201</v>
+        <v>3.1575766776412</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -4087,7 +4087,7 @@
         <v>468</v>
       </c>
       <c r="B468">
-        <v>0.354258410113061</v>
+        <v>0.3542584101130609</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4103,7 +4103,7 @@
         <v>470</v>
       </c>
       <c r="B470">
-        <v>1.405100080828993</v>
+        <v>1.405100080828992</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>472</v>
       </c>
       <c r="B472">
-        <v>0.6634046883160197</v>
+        <v>0.6634046883160196</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>495</v>
       </c>
       <c r="B495">
-        <v>19.90136606272542</v>
+        <v>19.90136606272541</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4311,7 +4311,7 @@
         <v>496</v>
       </c>
       <c r="B496">
-        <v>7.612002958845206</v>
+        <v>7.612002958845205</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4439,7 +4439,7 @@
         <v>512</v>
       </c>
       <c r="B512">
-        <v>6.598670278083386</v>
+        <v>6.598670278083385</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4719,7 +4719,7 @@
         <v>547</v>
       </c>
       <c r="B547">
-        <v>7.541421195249202</v>
+        <v>7.541421195249201</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4927,7 +4927,7 @@
         <v>573</v>
       </c>
       <c r="B573">
-        <v>8.198076164473813</v>
+        <v>8.198076164473811</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -5055,7 +5055,7 @@
         <v>589</v>
       </c>
       <c r="B589">
-        <v>16.83467159338621</v>
+        <v>16.8346715933862</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5255,7 +5255,7 @@
         <v>614</v>
       </c>
       <c r="B614">
-        <v>43.63508318235291</v>
+        <v>43.6350831823529</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5279,7 +5279,7 @@
         <v>617</v>
       </c>
       <c r="B617">
-        <v>40.30623578971802</v>
+        <v>40.30623578971801</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5303,7 +5303,7 @@
         <v>620</v>
       </c>
       <c r="B620">
-        <v>33.24199285961722</v>
+        <v>33.24199285961721</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5335,7 +5335,7 @@
         <v>624</v>
       </c>
       <c r="B624">
-        <v>0.123219666707892</v>
+        <v>0.1232196667078919</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5431,7 +5431,7 @@
         <v>636</v>
       </c>
       <c r="B636">
-        <v>3.059465286028542</v>
+        <v>3.059465286028541</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5439,7 +5439,7 @@
         <v>637</v>
       </c>
       <c r="B637">
-        <v>17.95883641419379</v>
+        <v>17.95883641419378</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5615,7 +5615,7 @@
         <v>659</v>
       </c>
       <c r="B659">
-        <v>0.3360381836394851</v>
+        <v>0.336038183639485</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5623,7 +5623,7 @@
         <v>660</v>
       </c>
       <c r="B660">
-        <v>6.63719446611542</v>
+        <v>6.637194466115419</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5663,7 +5663,7 @@
         <v>665</v>
       </c>
       <c r="B665">
-        <v>0.9610092428744174</v>
+        <v>0.9610092428744172</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5831,7 +5831,7 @@
         <v>686</v>
       </c>
       <c r="B686">
-        <v>43.94858127240895</v>
+        <v>43.94858127240894</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5991,7 +5991,7 @@
         <v>706</v>
       </c>
       <c r="B706">
-        <v>6.43563485927608</v>
+        <v>6.435634859276079</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6215,7 +6215,7 @@
         <v>734</v>
       </c>
       <c r="B734">
-        <v>61.35855424539777</v>
+        <v>61.35855424539776</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6223,7 +6223,7 @@
         <v>735</v>
       </c>
       <c r="B735">
-        <v>66.46745651265394</v>
+        <v>66.46745651265392</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6359,7 +6359,7 @@
         <v>752</v>
       </c>
       <c r="B752">
-        <v>7.664364495967637</v>
+        <v>7.664364495967636</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6375,7 +6375,7 @@
         <v>754</v>
       </c>
       <c r="B754">
-        <v>5.847734355721421</v>
+        <v>5.84773435572142</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6471,7 +6471,7 @@
         <v>766</v>
       </c>
       <c r="B766">
-        <v>5.685021315056642</v>
+        <v>5.685021315056641</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6575,7 +6575,7 @@
         <v>779</v>
       </c>
       <c r="B779">
-        <v>6.076417687188869</v>
+        <v>6.076417687188868</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6583,7 +6583,7 @@
         <v>780</v>
       </c>
       <c r="B780">
-        <v>7.873324146533176</v>
+        <v>7.873324146533175</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6775,7 +6775,7 @@
         <v>804</v>
       </c>
       <c r="B804">
-        <v>0.11855690648279</v>
+        <v>0.1185569064827899</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6815,7 +6815,7 @@
         <v>809</v>
       </c>
       <c r="B809">
-        <v>0.130360928706953</v>
+        <v>0.1303609287069529</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6959,7 +6959,7 @@
         <v>827</v>
       </c>
       <c r="B827">
-        <v>0.2978012052253394</v>
+        <v>0.2978012052253393</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -7127,7 +7127,7 @@
         <v>848</v>
       </c>
       <c r="B848">
-        <v>8.171436007059496</v>
+        <v>8.171436007059494</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7183,7 +7183,7 @@
         <v>855</v>
       </c>
       <c r="B855">
-        <v>71.74126985336484</v>
+        <v>71.74126985336483</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7335,7 +7335,7 @@
         <v>874</v>
       </c>
       <c r="B874">
-        <v>13.03612217779917</v>
+        <v>13.03612217779916</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7367,7 +7367,7 @@
         <v>878</v>
       </c>
       <c r="B878">
-        <v>70.19880766978632</v>
+        <v>70.19880766978631</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7399,7 +7399,7 @@
         <v>882</v>
       </c>
       <c r="B882">
-        <v>29.60413136381781</v>
+        <v>29.6041313638178</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -7439,7 +7439,7 @@
         <v>887</v>
       </c>
       <c r="B887">
-        <v>5.818767214260134</v>
+        <v>5.818767214260133</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7599,7 +7599,7 @@
         <v>907</v>
       </c>
       <c r="B907">
-        <v>12.45886015294792</v>
+        <v>12.45886015294791</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -7703,7 +7703,7 @@
         <v>920</v>
       </c>
       <c r="B920">
-        <v>8.543812068782602</v>
+        <v>8.5438120687826</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -7711,7 +7711,7 @@
         <v>921</v>
       </c>
       <c r="B921">
-        <v>4.784970848223785</v>
+        <v>4.784970848223784</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -8007,7 +8007,7 @@
         <v>958</v>
       </c>
       <c r="B958">
-        <v>0.7595287652155157</v>
+        <v>0.7595287652155156</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8335,7 +8335,7 @@
         <v>999</v>
       </c>
       <c r="B999">
-        <v>3.422539859126614</v>
+        <v>3.422539859126613</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8951,7 +8951,7 @@
         <v>1076</v>
       </c>
       <c r="B1076">
-        <v>89.25821375546505</v>
+        <v>89.25821375546504</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
@@ -9135,7 +9135,7 @@
         <v>1099</v>
       </c>
       <c r="B1099">
-        <v>60.73870899862902</v>
+        <v>60.73870899862901</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
@@ -9255,7 +9255,7 @@
         <v>1114</v>
       </c>
       <c r="B1114">
-        <v>6.576015886794864</v>
+        <v>6.576015886794863</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
@@ -9343,7 +9343,7 @@
         <v>1125</v>
       </c>
       <c r="B1125">
-        <v>7.533801348244007</v>
+        <v>7.533801348244006</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
@@ -9447,7 +9447,7 @@
         <v>1138</v>
       </c>
       <c r="B1138">
-        <v>0.217084165899309</v>
+        <v>0.2170841658993089</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
@@ -9471,7 +9471,7 @@
         <v>1141</v>
       </c>
       <c r="B1141">
-        <v>1.470228964679665</v>
+        <v>1.470228964679664</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
@@ -9503,7 +9503,7 @@
         <v>1145</v>
       </c>
       <c r="B1145">
-        <v>0.2368717362876457</v>
+        <v>0.2368717362876456</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
@@ -9703,7 +9703,7 @@
         <v>1170</v>
       </c>
       <c r="B1170">
-        <v>36.14154979482097</v>
+        <v>36.14154979482096</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
@@ -9727,7 +9727,7 @@
         <v>1173</v>
       </c>
       <c r="B1173">
-        <v>35.78365437311813</v>
+        <v>35.78365437311812</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
@@ -10079,7 +10079,7 @@
         <v>1217</v>
       </c>
       <c r="B1217">
-        <v>30.81991019131092</v>
+        <v>30.81991019131091</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
@@ -10127,7 +10127,7 @@
         <v>1223</v>
       </c>
       <c r="B1223">
-        <v>6.52485740628614</v>
+        <v>6.524857406286139</v>
       </c>
     </row>
     <row r="1224" spans="1:2">
@@ -10423,7 +10423,7 @@
         <v>1260</v>
       </c>
       <c r="B1260">
-        <v>8.812734053858252</v>
+        <v>8.81273405385825</v>
       </c>
     </row>
     <row r="1261" spans="1:2">
@@ -10471,7 +10471,7 @@
         <v>1266</v>
       </c>
       <c r="B1266">
-        <v>14.74346612772857</v>
+        <v>14.74346612772856</v>
       </c>
     </row>
     <row r="1267" spans="1:2">
@@ -10591,7 +10591,7 @@
         <v>1281</v>
       </c>
       <c r="B1281">
-        <v>6.499876030950647</v>
+        <v>6.499876030950646</v>
       </c>
     </row>
     <row r="1282" spans="1:2">
@@ -10831,7 +10831,7 @@
         <v>1311</v>
       </c>
       <c r="B1311">
-        <v>59.1205172586604</v>
+        <v>59.12051725866039</v>
       </c>
     </row>
     <row r="1312" spans="1:2">
@@ -10855,7 +10855,7 @@
         <v>1314</v>
       </c>
       <c r="B1314">
-        <v>26.10002749006343</v>
+        <v>26.10002749006342</v>
       </c>
     </row>
     <row r="1315" spans="1:2">
@@ -10863,7 +10863,7 @@
         <v>1315</v>
       </c>
       <c r="B1315">
-        <v>51.90516690102582</v>
+        <v>51.90516690102581</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
@@ -10879,7 +10879,7 @@
         <v>1317</v>
       </c>
       <c r="B1317">
-        <v>10.11994811470332</v>
+        <v>10.11994811470331</v>
       </c>
     </row>
     <row r="1318" spans="1:2">
@@ -10975,7 +10975,7 @@
         <v>1329</v>
       </c>
       <c r="B1329">
-        <v>0.0453571392984231</v>
+        <v>0.045357139298423</v>
       </c>
     </row>
     <row r="1330" spans="1:2">
@@ -11039,7 +11039,7 @@
         <v>1337</v>
       </c>
       <c r="B1337">
-        <v>57.45182937873044</v>
+        <v>57.45182937873043</v>
       </c>
     </row>
     <row r="1338" spans="1:2">
@@ -11295,7 +11295,7 @@
         <v>1369</v>
       </c>
       <c r="B1369">
-        <v>5.636752514989119</v>
+        <v>5.636752514989118</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
@@ -11423,7 +11423,7 @@
         <v>1385</v>
       </c>
       <c r="B1385">
-        <v>81.00454201495718</v>
+        <v>81.00454201495717</v>
       </c>
     </row>
     <row r="1386" spans="1:2">
@@ -11487,7 +11487,7 @@
         <v>1393</v>
       </c>
       <c r="B1393">
-        <v>4.829605567411908</v>
+        <v>4.829605567411907</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
@@ -11591,7 +11591,7 @@
         <v>1406</v>
       </c>
       <c r="B1406">
-        <v>55.05210509996361</v>
+        <v>55.0521050999636</v>
       </c>
     </row>
     <row r="1407" spans="1:2">
@@ -11615,7 +11615,7 @@
         <v>1409</v>
       </c>
       <c r="B1409">
-        <v>81.49543600471493</v>
+        <v>81.49543600471492</v>
       </c>
     </row>
     <row r="1410" spans="1:2">
@@ -11831,7 +11831,7 @@
         <v>1436</v>
       </c>
       <c r="B1436">
-        <v>0.6019386063065372</v>
+        <v>0.6019386063065371</v>
       </c>
     </row>
     <row r="1437" spans="1:2">
@@ -11927,7 +11927,7 @@
         <v>1448</v>
       </c>
       <c r="B1448">
-        <v>8.786562810105794</v>
+        <v>8.786562810105792</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
@@ -11991,7 +11991,7 @@
         <v>1456</v>
       </c>
       <c r="B1456">
-        <v>30.61642803845796</v>
+        <v>30.61642803845795</v>
       </c>
     </row>
     <row r="1457" spans="1:2">
@@ -12343,7 +12343,7 @@
         <v>1500</v>
       </c>
       <c r="B1500">
-        <v>22.04771665423069</v>
+        <v>22.04771665423068</v>
       </c>
     </row>
     <row r="1501" spans="1:2">
@@ -12519,7 +12519,7 @@
         <v>1522</v>
       </c>
       <c r="B1522">
-        <v>23.01653917099582</v>
+        <v>23.01653917099581</v>
       </c>
     </row>
     <row r="1523" spans="1:2">
@@ -12583,7 +12583,7 @@
         <v>1530</v>
       </c>
       <c r="B1530">
-        <v>41.23746901506444</v>
+        <v>41.23746901506443</v>
       </c>
     </row>
     <row r="1531" spans="1:2">
@@ -12623,7 +12623,7 @@
         <v>1535</v>
       </c>
       <c r="B1535">
-        <v>3.047197332350178</v>
+        <v>3.047197332350177</v>
       </c>
     </row>
     <row r="1536" spans="1:2">
@@ -12727,7 +12727,7 @@
         <v>1548</v>
       </c>
       <c r="B1548">
-        <v>19.16819405522983</v>
+        <v>19.16819405522982</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
@@ -12919,7 +12919,7 @@
         <v>1572</v>
       </c>
       <c r="B1572">
-        <v>23.17638011548172</v>
+        <v>23.17638011548171</v>
       </c>
     </row>
     <row r="1573" spans="1:2">
@@ -13151,7 +13151,7 @@
         <v>1601</v>
       </c>
       <c r="B1601">
-        <v>24.74038302040185</v>
+        <v>24.74038302040184</v>
       </c>
     </row>
     <row r="1602" spans="1:2">
@@ -13159,7 +13159,7 @@
         <v>1602</v>
       </c>
       <c r="B1602">
-        <v>20.25522091401824</v>
+        <v>20.25522091401823</v>
       </c>
     </row>
     <row r="1603" spans="1:2">
@@ -13335,7 +13335,7 @@
         <v>1624</v>
       </c>
       <c r="B1624">
-        <v>79.80720028650626</v>
+        <v>79.80720028650624</v>
       </c>
     </row>
     <row r="1625" spans="1:2">
@@ -13351,7 +13351,7 @@
         <v>1626</v>
       </c>
       <c r="B1626">
-        <v>48.8237593863327</v>
+        <v>48.82375938633268</v>
       </c>
     </row>
     <row r="1627" spans="1:2">
@@ -13359,7 +13359,7 @@
         <v>1627</v>
       </c>
       <c r="B1627">
-        <v>76.14170219176108</v>
+        <v>76.14170219176107</v>
       </c>
     </row>
     <row r="1628" spans="1:2">
@@ -13367,7 +13367,7 @@
         <v>1628</v>
       </c>
       <c r="B1628">
-        <v>51.51582202616422</v>
+        <v>51.51582202616421</v>
       </c>
     </row>
     <row r="1629" spans="1:2">
@@ -13423,7 +13423,7 @@
         <v>1635</v>
       </c>
       <c r="B1635">
-        <v>0.7394299533841207</v>
+        <v>0.7394299533841205</v>
       </c>
     </row>
     <row r="1636" spans="1:2">
@@ -13511,7 +13511,7 @@
         <v>1646</v>
       </c>
       <c r="B1646">
-        <v>44.38396760744425</v>
+        <v>44.38396760744423</v>
       </c>
     </row>
     <row r="1647" spans="1:2">
@@ -13519,7 +13519,7 @@
         <v>1647</v>
       </c>
       <c r="B1647">
-        <v>56.67604103228999</v>
+        <v>56.67604103228998</v>
       </c>
     </row>
     <row r="1648" spans="1:2">
@@ -13543,7 +13543,7 @@
         <v>1650</v>
       </c>
       <c r="B1650">
-        <v>41.34388310920238</v>
+        <v>41.34388310920237</v>
       </c>
     </row>
     <row r="1651" spans="1:2">
@@ -13663,7 +13663,7 @@
         <v>1665</v>
       </c>
       <c r="B1665">
-        <v>5.960285357408925</v>
+        <v>5.960285357408924</v>
       </c>
     </row>
     <row r="1666" spans="1:2">
@@ -13871,7 +13871,7 @@
         <v>1691</v>
       </c>
       <c r="B1691">
-        <v>51.2930880367816</v>
+        <v>51.29308803678158</v>
       </c>
     </row>
     <row r="1692" spans="1:2">
@@ -13951,7 +13951,7 @@
         <v>1701</v>
       </c>
       <c r="B1701">
-        <v>64.43638629341922</v>
+        <v>64.4363862934192</v>
       </c>
     </row>
     <row r="1702" spans="1:2">
@@ -13991,7 +13991,7 @@
         <v>1706</v>
       </c>
       <c r="B1706">
-        <v>5.397430704818264</v>
+        <v>5.397430704818263</v>
       </c>
     </row>
     <row r="1707" spans="1:2">
@@ -14135,7 +14135,7 @@
         <v>1724</v>
       </c>
       <c r="B1724">
-        <v>84.95859785436832</v>
+        <v>84.95859785436831</v>
       </c>
     </row>
     <row r="1725" spans="1:2">
@@ -14247,7 +14247,7 @@
         <v>1738</v>
       </c>
       <c r="B1738">
-        <v>47.25474496665146</v>
+        <v>47.25474496665144</v>
       </c>
     </row>
     <row r="1739" spans="1:2">
@@ -14279,7 +14279,7 @@
         <v>1742</v>
       </c>
       <c r="B1742">
-        <v>146.5698086421961</v>
+        <v>146.569808642196</v>
       </c>
     </row>
     <row r="1743" spans="1:2">
@@ -14319,7 +14319,7 @@
         <v>1747</v>
       </c>
       <c r="B1747">
-        <v>195.6674136070539</v>
+        <v>195.6674136070538</v>
       </c>
     </row>
     <row r="1748" spans="1:2">
@@ -14335,7 +14335,7 @@
         <v>1749</v>
       </c>
       <c r="B1749">
-        <v>96.32905078393574</v>
+        <v>96.32905078393571</v>
       </c>
     </row>
     <row r="1750" spans="1:2">
@@ -14375,7 +14375,7 @@
         <v>1754</v>
       </c>
       <c r="B1754">
-        <v>6.140072716786113</v>
+        <v>6.140072716786112</v>
       </c>
     </row>
     <row r="1755" spans="1:2">
@@ -14583,7 +14583,7 @@
         <v>1780</v>
       </c>
       <c r="B1780">
-        <v>3.918975236083376</v>
+        <v>3.918975236083375</v>
       </c>
     </row>
     <row r="1781" spans="1:2">
@@ -14615,7 +14615,7 @@
         <v>1784</v>
       </c>
       <c r="B1784">
-        <v>10.10948547862311</v>
+        <v>10.1094854786231</v>
       </c>
     </row>
     <row r="1785" spans="1:2">
@@ -14639,7 +14639,7 @@
         <v>1787</v>
       </c>
       <c r="B1787">
-        <v>31.04882504889891</v>
+        <v>31.0488250488989</v>
       </c>
     </row>
     <row r="1788" spans="1:2">
@@ -14847,7 +14847,7 @@
         <v>1813</v>
       </c>
       <c r="B1813">
-        <v>4.885007716560449</v>
+        <v>4.885007716560448</v>
       </c>
     </row>
     <row r="1814" spans="1:2">
@@ -14879,7 +14879,7 @@
         <v>1817</v>
       </c>
       <c r="B1817">
-        <v>43.9697410014003</v>
+        <v>43.96974100140029</v>
       </c>
     </row>
     <row r="1818" spans="1:2">
@@ -14895,7 +14895,7 @@
         <v>1819</v>
       </c>
       <c r="B1819">
-        <v>51.90836137534722</v>
+        <v>51.90836137534721</v>
       </c>
     </row>
     <row r="1820" spans="1:2">
@@ -15063,7 +15063,7 @@
         <v>1840</v>
       </c>
       <c r="B1840">
-        <v>115.3966042444893</v>
+        <v>115.3966042444892</v>
       </c>
     </row>
     <row r="1841" spans="1:2">
@@ -15079,7 +15079,7 @@
         <v>1842</v>
       </c>
       <c r="B1842">
-        <v>184.8734021034295</v>
+        <v>184.8734021034294</v>
       </c>
     </row>
     <row r="1843" spans="1:2">
@@ -15223,7 +15223,7 @@
         <v>1860</v>
       </c>
       <c r="B1860">
-        <v>43.9186001051539</v>
+        <v>43.91860010515389</v>
       </c>
     </row>
     <row r="1861" spans="1:2">
@@ -15383,7 +15383,7 @@
         <v>1880</v>
       </c>
       <c r="B1880">
-        <v>14.92505294328314</v>
+        <v>14.92505294328313</v>
       </c>
     </row>
     <row r="1881" spans="1:2">
@@ -15567,7 +15567,7 @@
         <v>1903</v>
       </c>
       <c r="B1903">
-        <v>8.46368644681259</v>
+        <v>8.463686446812588</v>
       </c>
     </row>
     <row r="1904" spans="1:2">
@@ -15623,7 +15623,7 @@
         <v>1910</v>
       </c>
       <c r="B1910">
-        <v>48.32600753427027</v>
+        <v>48.32600753427026</v>
       </c>
     </row>
     <row r="1911" spans="1:2">
@@ -15631,7 +15631,7 @@
         <v>1911</v>
       </c>
       <c r="B1911">
-        <v>32.3233909960371</v>
+        <v>32.32339099603709</v>
       </c>
     </row>
     <row r="1912" spans="1:2">
@@ -15639,7 +15639,7 @@
         <v>1912</v>
       </c>
       <c r="B1912">
-        <v>67.98078743498952</v>
+        <v>67.98078743498951</v>
       </c>
     </row>
     <row r="1913" spans="1:2">
@@ -15679,7 +15679,7 @@
         <v>1917</v>
       </c>
       <c r="B1917">
-        <v>30.95565776570847</v>
+        <v>30.95565776570846</v>
       </c>
     </row>
     <row r="1918" spans="1:2">
@@ -15695,7 +15695,7 @@
         <v>1919</v>
       </c>
       <c r="B1919">
-        <v>8.826156707428941</v>
+        <v>8.82615670742894</v>
       </c>
     </row>
     <row r="1920" spans="1:2">
@@ -15879,7 +15879,7 @@
         <v>1942</v>
       </c>
       <c r="B1942">
-        <v>27.25323272009196</v>
+        <v>27.25323272009195</v>
       </c>
     </row>
     <row r="1943" spans="1:2">
@@ -15959,7 +15959,7 @@
         <v>1952</v>
       </c>
       <c r="B1952">
-        <v>5.933662784256928</v>
+        <v>5.933662784256927</v>
       </c>
     </row>
     <row r="1953" spans="1:2">
@@ -15967,7 +15967,7 @@
         <v>1953</v>
       </c>
       <c r="B1953">
-        <v>8.17952476772655</v>
+        <v>8.179524767726548</v>
       </c>
     </row>
     <row r="1954" spans="1:2">
@@ -16039,7 +16039,7 @@
         <v>1962</v>
       </c>
       <c r="B1962">
-        <v>162.9167250366486</v>
+        <v>162.9167250366485</v>
       </c>
     </row>
     <row r="1963" spans="1:2">
@@ -16055,7 +16055,7 @@
         <v>1964</v>
       </c>
       <c r="B1964">
-        <v>95.63461895782767</v>
+        <v>95.63461895782766</v>
       </c>
     </row>
     <row r="1965" spans="1:2">
@@ -16071,7 +16071,7 @@
         <v>1966</v>
       </c>
       <c r="B1966">
-        <v>42.47613375996662</v>
+        <v>42.47613375996661</v>
       </c>
     </row>
     <row r="1967" spans="1:2">
@@ -16367,7 +16367,7 @@
         <v>2003</v>
       </c>
       <c r="B2003">
-        <v>5.631075728970249</v>
+        <v>5.631075728970248</v>
       </c>
     </row>
     <row r="2004" spans="1:2">
@@ -16383,7 +16383,7 @@
         <v>2005</v>
       </c>
       <c r="B2005">
-        <v>6.893853479720365</v>
+        <v>6.893853479720363</v>
       </c>
     </row>
     <row r="2006" spans="1:2">
@@ -16391,7 +16391,7 @@
         <v>2006</v>
       </c>
       <c r="B2006">
-        <v>7.99406062233049</v>
+        <v>7.994060622330489</v>
       </c>
     </row>
     <row r="2007" spans="1:2">
@@ -16543,7 +16543,7 @@
         <v>2025</v>
       </c>
       <c r="B2025">
-        <v>16.29932165777392</v>
+        <v>16.29932165777391</v>
       </c>
     </row>
     <row r="2026" spans="1:2">
@@ -16719,7 +16719,7 @@
         <v>2047</v>
       </c>
       <c r="B2047">
-        <v>16.33510563159447</v>
+        <v>16.33510563159446</v>
       </c>
     </row>
     <row r="2048" spans="1:2">
@@ -16879,7 +16879,7 @@
         <v>2067</v>
       </c>
       <c r="B2067">
-        <v>9.525306977259447</v>
+        <v>9.525306977259444</v>
       </c>
     </row>
     <row r="2068" spans="1:2">
@@ -17007,7 +17007,7 @@
         <v>2083</v>
       </c>
       <c r="B2083">
-        <v>167.1911661355243</v>
+        <v>167.1911661355242</v>
       </c>
     </row>
     <row r="2084" spans="1:2">
@@ -17111,7 +17111,7 @@
         <v>2096</v>
       </c>
       <c r="B2096">
-        <v>7.49488151430978</v>
+        <v>7.494881514309779</v>
       </c>
     </row>
     <row r="2097" spans="1:2">
@@ -17151,7 +17151,7 @@
         <v>2101</v>
       </c>
       <c r="B2101">
-        <v>22.90364820690347</v>
+        <v>22.90364820690346</v>
       </c>
     </row>
     <row r="2102" spans="1:2">
@@ -17207,7 +17207,7 @@
         <v>2108</v>
       </c>
       <c r="B2108">
-        <v>41.73448818953022</v>
+        <v>41.73448818953021</v>
       </c>
     </row>
     <row r="2109" spans="1:2">
@@ -17239,7 +17239,7 @@
         <v>2112</v>
       </c>
       <c r="B2112">
-        <v>4.69546695301661</v>
+        <v>4.695466953016609</v>
       </c>
     </row>
     <row r="2113" spans="1:2">
@@ -17247,7 +17247,7 @@
         <v>2113</v>
       </c>
       <c r="B2113">
-        <v>1.806724339139462</v>
+        <v>1.806724339139461</v>
       </c>
     </row>
     <row r="2114" spans="1:2">
@@ -17295,7 +17295,7 @@
         <v>2119</v>
       </c>
       <c r="B2119">
-        <v>5.67359154454885</v>
+        <v>5.673591544548849</v>
       </c>
     </row>
     <row r="2120" spans="1:2">
@@ -17303,7 +17303,7 @@
         <v>2120</v>
       </c>
       <c r="B2120">
-        <v>7.081973727939811</v>
+        <v>7.08197372793981</v>
       </c>
     </row>
     <row r="2121" spans="1:2">
@@ -17407,7 +17407,7 @@
         <v>2133</v>
       </c>
       <c r="B2133">
-        <v>87.56338393888649</v>
+        <v>87.56338393888647</v>
       </c>
     </row>
     <row r="2134" spans="1:2">
@@ -17527,7 +17527,7 @@
         <v>2148</v>
       </c>
       <c r="B2148">
-        <v>7.999520535780751</v>
+        <v>7.99952053578075</v>
       </c>
     </row>
     <row r="2149" spans="1:2">
@@ -17711,7 +17711,7 @@
         <v>2171</v>
       </c>
       <c r="B2171">
-        <v>63.57103543756386</v>
+        <v>63.57103543756385</v>
       </c>
     </row>
     <row r="2172" spans="1:2">
@@ -17807,7 +17807,7 @@
         <v>2183</v>
       </c>
       <c r="B2183">
-        <v>36.04738607009908</v>
+        <v>36.04738607009907</v>
       </c>
     </row>
     <row r="2184" spans="1:2">
@@ -17879,7 +17879,7 @@
         <v>2192</v>
       </c>
       <c r="B2192">
-        <v>9.669468621176962</v>
+        <v>9.669468621176961</v>
       </c>
     </row>
     <row r="2193" spans="1:2">
@@ -17975,7 +17975,7 @@
         <v>2204</v>
       </c>
       <c r="B2204">
-        <v>74.5505609086609</v>
+        <v>74.55056090866088</v>
       </c>
     </row>
     <row r="2205" spans="1:2">
@@ -18159,7 +18159,7 @@
         <v>2227</v>
       </c>
       <c r="B2227">
-        <v>47.64998056939015</v>
+        <v>47.64998056939014</v>
       </c>
     </row>
     <row r="2228" spans="1:2">
@@ -18399,7 +18399,7 @@
         <v>2257</v>
       </c>
       <c r="B2257">
-        <v>0.7028165885241588</v>
+        <v>0.7028165885241587</v>
       </c>
     </row>
     <row r="2258" spans="1:2">
@@ -18551,7 +18551,7 @@
         <v>2276</v>
       </c>
       <c r="B2276">
-        <v>64.81148791580188</v>
+        <v>64.81148791580186</v>
       </c>
     </row>
     <row r="2277" spans="1:2">
@@ -18615,7 +18615,7 @@
         <v>2284</v>
       </c>
       <c r="B2284">
-        <v>6.894701334235212</v>
+        <v>6.894701334235211</v>
       </c>
     </row>
     <row r="2285" spans="1:2">
@@ -18663,7 +18663,7 @@
         <v>2290</v>
       </c>
       <c r="B2290">
-        <v>19.54596262406431</v>
+        <v>19.5459626240643</v>
       </c>
     </row>
     <row r="2291" spans="1:2">
@@ -18711,7 +18711,7 @@
         <v>2296</v>
       </c>
       <c r="B2296">
-        <v>28.90521555081823</v>
+        <v>28.90521555081822</v>
       </c>
     </row>
     <row r="2297" spans="1:2">
@@ -18759,7 +18759,7 @@
         <v>2302</v>
       </c>
       <c r="B2302">
-        <v>27.87413302259989</v>
+        <v>27.87413302259988</v>
       </c>
     </row>
     <row r="2303" spans="1:2">
@@ -18975,7 +18975,7 @@
         <v>2329</v>
       </c>
       <c r="B2329">
-        <v>3.918975236083376</v>
+        <v>3.918975236083375</v>
       </c>
     </row>
     <row r="2330" spans="1:2">
@@ -19143,7 +19143,7 @@
         <v>2350</v>
       </c>
       <c r="B2350">
-        <v>74.18114486442828</v>
+        <v>74.18114486442826</v>
       </c>
     </row>
     <row r="2351" spans="1:2">
@@ -19263,7 +19263,7 @@
         <v>2365</v>
       </c>
       <c r="B2365">
-        <v>149.9799832480595</v>
+        <v>149.9799832480594</v>
       </c>
     </row>
     <row r="2366" spans="1:2">
@@ -19319,7 +19319,7 @@
         <v>2372</v>
       </c>
       <c r="B2372">
-        <v>264.8872760863998</v>
+        <v>264.8872760863997</v>
       </c>
     </row>
     <row r="2373" spans="1:2">
@@ -19367,7 +19367,7 @@
         <v>2378</v>
       </c>
       <c r="B2378">
-        <v>43.95924905821623</v>
+        <v>43.95924905821622</v>
       </c>
     </row>
     <row r="2379" spans="1:2">
@@ -19447,7 +19447,7 @@
         <v>2388</v>
       </c>
       <c r="B2388">
-        <v>175.9109087488153</v>
+        <v>175.9109087488152</v>
       </c>
     </row>
     <row r="2389" spans="1:2">
@@ -19631,7 +19631,7 @@
         <v>2411</v>
       </c>
       <c r="B2411">
-        <v>21.90565339894999</v>
+        <v>21.90565339894998</v>
       </c>
     </row>
     <row r="2412" spans="1:2">
@@ -19703,7 +19703,7 @@
         <v>2420</v>
       </c>
       <c r="B2420">
-        <v>162.1424313525053</v>
+        <v>162.1424313525052</v>
       </c>
     </row>
     <row r="2421" spans="1:2">
@@ -19735,7 +19735,7 @@
         <v>2424</v>
       </c>
       <c r="B2424">
-        <v>18.54080809063633</v>
+        <v>18.54080809063632</v>
       </c>
     </row>
     <row r="2425" spans="1:2">
@@ -19783,7 +19783,7 @@
         <v>2430</v>
       </c>
       <c r="B2430">
-        <v>6.551456533755044</v>
+        <v>6.551456533755043</v>
       </c>
     </row>
     <row r="2431" spans="1:2">
@@ -19919,7 +19919,7 @@
         <v>2447</v>
       </c>
       <c r="B2447">
-        <v>76.90840533600303</v>
+        <v>76.908405336003</v>
       </c>
     </row>
     <row r="2448" spans="1:2">
@@ -20023,7 +20023,7 @@
         <v>2460</v>
       </c>
       <c r="B2460">
-        <v>110.4288742965563</v>
+        <v>110.4288742965562</v>
       </c>
     </row>
     <row r="2461" spans="1:2">
@@ -20063,7 +20063,7 @@
         <v>2465</v>
       </c>
       <c r="B2465">
-        <v>247.8580903139436</v>
+        <v>247.8580903139435</v>
       </c>
     </row>
     <row r="2466" spans="1:2">
@@ -20111,7 +20111,7 @@
         <v>2471</v>
       </c>
       <c r="B2471">
-        <v>74.28952253452525</v>
+        <v>74.28952253452523</v>
       </c>
     </row>
     <row r="2472" spans="1:2">
@@ -20191,7 +20191,7 @@
         <v>2481</v>
       </c>
       <c r="B2481">
-        <v>39.91404812578141</v>
+        <v>39.9140481257814</v>
       </c>
     </row>
     <row r="2482" spans="1:2">
@@ -20239,7 +20239,7 @@
         <v>2487</v>
       </c>
       <c r="B2487">
-        <v>249.2572114525129</v>
+        <v>249.2572114525128</v>
       </c>
     </row>
     <row r="2488" spans="1:2">
@@ -20367,7 +20367,7 @@
         <v>2503</v>
       </c>
       <c r="B2503">
-        <v>7.252409190473317</v>
+        <v>7.252409190473315</v>
       </c>
     </row>
     <row r="2504" spans="1:2">
@@ -20535,7 +20535,7 @@
         <v>2524</v>
       </c>
       <c r="B2524">
-        <v>17.83307963150421</v>
+        <v>17.8330796315042</v>
       </c>
     </row>
     <row r="2525" spans="1:2">
@@ -20615,7 +20615,7 @@
         <v>2534</v>
       </c>
       <c r="B2534">
-        <v>264.5232818563824</v>
+        <v>264.5232818563823</v>
       </c>
     </row>
     <row r="2535" spans="1:2">
@@ -20735,7 +20735,7 @@
         <v>2549</v>
       </c>
       <c r="B2549">
-        <v>83.46047731893925</v>
+        <v>83.46047731893924</v>
       </c>
     </row>
     <row r="2550" spans="1:2">
@@ -20767,7 +20767,7 @@
         <v>2553</v>
       </c>
       <c r="B2553">
-        <v>89.63138110899254</v>
+        <v>89.63138110899253</v>
       </c>
     </row>
     <row r="2554" spans="1:2">
@@ -20807,7 +20807,7 @@
         <v>2558</v>
       </c>
       <c r="B2558">
-        <v>230.2357287592369</v>
+        <v>230.2357287592368</v>
       </c>
     </row>
     <row r="2559" spans="1:2">
@@ -20983,7 +20983,7 @@
         <v>2580</v>
       </c>
       <c r="B2580">
-        <v>219.8944240890327</v>
+        <v>219.8944240890326</v>
       </c>
     </row>
     <row r="2581" spans="1:2">
@@ -21135,7 +21135,7 @@
         <v>2599</v>
       </c>
       <c r="B2599">
-        <v>33.78326576092086</v>
+        <v>33.78326576092085</v>
       </c>
     </row>
     <row r="2600" spans="1:2">
@@ -21279,7 +21279,7 @@
         <v>2617</v>
       </c>
       <c r="B2617">
-        <v>28.47741975568426</v>
+        <v>28.47741975568425</v>
       </c>
     </row>
     <row r="2618" spans="1:2">
@@ -21319,7 +21319,7 @@
         <v>2622</v>
       </c>
       <c r="B2622">
-        <v>12.49235817266691</v>
+        <v>12.4923581726669</v>
       </c>
     </row>
     <row r="2623" spans="1:2">
@@ -21359,7 +21359,7 @@
         <v>2627</v>
       </c>
       <c r="B2627">
-        <v>81.39432649637678</v>
+        <v>81.39432649637676</v>
       </c>
     </row>
     <row r="2628" spans="1:2">
@@ -21527,7 +21527,7 @@
         <v>2648</v>
       </c>
       <c r="B2648">
-        <v>5.118690839947459</v>
+        <v>5.118690839947458</v>
       </c>
     </row>
     <row r="2649" spans="1:2">
@@ -21535,7 +21535,7 @@
         <v>2649</v>
       </c>
       <c r="B2649">
-        <v>7.000793050230619</v>
+        <v>7.000793050230618</v>
       </c>
     </row>
     <row r="2650" spans="1:2">
@@ -21543,7 +21543,7 @@
         <v>2650</v>
       </c>
       <c r="B2650">
-        <v>12.30030872103213</v>
+        <v>12.30030872103212</v>
       </c>
     </row>
     <row r="2651" spans="1:2">
@@ -21647,7 +21647,7 @@
         <v>2663</v>
       </c>
       <c r="B2663">
-        <v>32.82688704045729</v>
+        <v>32.82688704045728</v>
       </c>
     </row>
     <row r="2664" spans="1:2">
@@ -21887,7 +21887,7 @@
         <v>2693</v>
       </c>
       <c r="B2693">
-        <v>0.9432755143250194</v>
+        <v>0.9432755143250192</v>
       </c>
     </row>
     <row r="2694" spans="1:2">
@@ -21935,7 +21935,7 @@
         <v>2699</v>
       </c>
       <c r="B2699">
-        <v>51.80100945388557</v>
+        <v>51.80100945388556</v>
       </c>
     </row>
     <row r="2700" spans="1:2">
@@ -22007,7 +22007,7 @@
         <v>2708</v>
       </c>
       <c r="B2708">
-        <v>329.2046462310186</v>
+        <v>329.2046462310185</v>
       </c>
     </row>
     <row r="2709" spans="1:2">
@@ -22023,7 +22023,7 @@
         <v>2710</v>
       </c>
       <c r="B2710">
-        <v>233.9334060540271</v>
+        <v>233.933406054027</v>
       </c>
     </row>
     <row r="2711" spans="1:2">
@@ -22127,7 +22127,7 @@
         <v>2723</v>
       </c>
       <c r="B2723">
-        <v>89.86085573226438</v>
+        <v>89.86085573226437</v>
       </c>
     </row>
     <row r="2724" spans="1:2">
@@ -22279,7 +22279,7 @@
         <v>2742</v>
       </c>
       <c r="B2742">
-        <v>61.24071038075204</v>
+        <v>61.24071038075203</v>
       </c>
     </row>
     <row r="2743" spans="1:2">
@@ -22311,7 +22311,7 @@
         <v>2746</v>
       </c>
       <c r="B2746">
-        <v>167.0903496982248</v>
+        <v>167.0903496982247</v>
       </c>
     </row>
     <row r="2747" spans="1:2">
@@ -22359,7 +22359,7 @@
         <v>2752</v>
       </c>
       <c r="B2752">
-        <v>433.2187816333553</v>
+        <v>433.2187816333552</v>
       </c>
     </row>
     <row r="2753" spans="1:2">
@@ -22479,7 +22479,7 @@
         <v>2767</v>
       </c>
       <c r="B2767">
-        <v>61.45474016028642</v>
+        <v>61.45474016028641</v>
       </c>
     </row>
     <row r="2768" spans="1:2">
@@ -22711,7 +22711,7 @@
         <v>2796</v>
       </c>
       <c r="B2796">
-        <v>213.2223688228685</v>
+        <v>213.2223688228684</v>
       </c>
     </row>
     <row r="2797" spans="1:2">
@@ -22735,7 +22735,7 @@
         <v>2799</v>
       </c>
       <c r="B2799">
-        <v>405.111803670539</v>
+        <v>405.1118036705389</v>
       </c>
     </row>
     <row r="2800" spans="1:2">
@@ -22775,7 +22775,7 @@
         <v>2804</v>
       </c>
       <c r="B2804">
-        <v>377.3951963312196</v>
+        <v>377.3951963312195</v>
       </c>
     </row>
     <row r="2805" spans="1:2">
@@ -22799,7 +22799,7 @@
         <v>2807</v>
       </c>
       <c r="B2807">
-        <v>203.6111041099697</v>
+        <v>203.6111041099696</v>
       </c>
     </row>
     <row r="2808" spans="1:2">
@@ -22855,7 +22855,7 @@
         <v>2814</v>
       </c>
       <c r="B2814">
-        <v>22.55890874412613</v>
+        <v>22.55890874412612</v>
       </c>
     </row>
     <row r="2815" spans="1:2">
@@ -22943,7 +22943,7 @@
         <v>2825</v>
       </c>
       <c r="B2825">
-        <v>193.7372477464303</v>
+        <v>193.7372477464302</v>
       </c>
     </row>
     <row r="2826" spans="1:2">
@@ -23023,7 +23023,7 @@
         <v>2835</v>
       </c>
       <c r="B2835">
-        <v>9.908321517685961</v>
+        <v>9.908321517685955</v>
       </c>
     </row>
     <row r="2836" spans="1:2">
@@ -23167,7 +23167,7 @@
         <v>2853</v>
       </c>
       <c r="B2853">
-        <v>100.4250409273706</v>
+        <v>100.4250409273705</v>
       </c>
     </row>
     <row r="2854" spans="1:2">
@@ -23183,7 +23183,7 @@
         <v>2855</v>
       </c>
       <c r="B2855">
-        <v>24.29837327989281</v>
+        <v>24.2983732798928</v>
       </c>
     </row>
     <row r="2856" spans="1:2">
@@ -23199,7 +23199,7 @@
         <v>2857</v>
       </c>
       <c r="B2857">
-        <v>6.880786321319571</v>
+        <v>6.88078632131957</v>
       </c>
     </row>
     <row r="2858" spans="1:2">
@@ -23391,7 +23391,7 @@
         <v>2881</v>
       </c>
       <c r="B2881">
-        <v>16.41192834295877</v>
+        <v>16.41192834295876</v>
       </c>
     </row>
     <row r="2882" spans="1:2">
@@ -23423,7 +23423,7 @@
         <v>2885</v>
       </c>
       <c r="B2885">
-        <v>6.929547480732045</v>
+        <v>6.929547480732044</v>
       </c>
     </row>
     <row r="2886" spans="1:2">
@@ -23479,7 +23479,7 @@
         <v>2892</v>
       </c>
       <c r="B2892">
-        <v>95.98486815613185</v>
+        <v>95.98486815613184</v>
       </c>
     </row>
     <row r="2893" spans="1:2">
@@ -23567,7 +23567,7 @@
         <v>2903</v>
       </c>
       <c r="B2903">
-        <v>85.29606915538686</v>
+        <v>85.29606915538685</v>
       </c>
     </row>
     <row r="2904" spans="1:2">
@@ -23775,7 +23775,7 @@
         <v>2929</v>
       </c>
       <c r="B2929">
-        <v>33.8876869719959</v>
+        <v>33.88768697199589</v>
       </c>
     </row>
     <row r="2930" spans="1:2">
@@ -23839,7 +23839,7 @@
         <v>2937</v>
       </c>
       <c r="B2937">
-        <v>69.67040058707991</v>
+        <v>69.6704005870799</v>
       </c>
     </row>
     <row r="2938" spans="1:2">
@@ -23927,7 +23927,7 @@
         <v>2948</v>
       </c>
       <c r="B2948">
-        <v>353.0014284282425</v>
+        <v>353.0014284282424</v>
       </c>
     </row>
     <row r="2949" spans="1:2">
@@ -24135,7 +24135,7 @@
         <v>2974</v>
       </c>
       <c r="B2974">
-        <v>411.6798187179784</v>
+        <v>411.6798187179783</v>
       </c>
     </row>
     <row r="2975" spans="1:2">
@@ -24263,7 +24263,7 @@
         <v>2990</v>
       </c>
       <c r="B2990">
-        <v>490.8473914626063</v>
+        <v>490.8473914626062</v>
       </c>
     </row>
     <row r="2991" spans="1:2">
@@ -24439,7 +24439,7 @@
         <v>3012</v>
       </c>
       <c r="B3012">
-        <v>384.4974798821386</v>
+        <v>384.4974798821385</v>
       </c>
     </row>
     <row r="3013" spans="1:2">
@@ -24831,7 +24831,7 @@
         <v>3061</v>
       </c>
       <c r="B3061">
-        <v>451.8068122604511</v>
+        <v>451.806812260451</v>
       </c>
     </row>
     <row r="3062" spans="1:2">
@@ -24991,7 +24991,7 @@
         <v>3081</v>
       </c>
       <c r="B3081">
-        <v>54.60959713868884</v>
+        <v>54.60959713868883</v>
       </c>
     </row>
     <row r="3082" spans="1:2">
@@ -25055,7 +25055,7 @@
         <v>3089</v>
       </c>
       <c r="B3089">
-        <v>191.4688779071915</v>
+        <v>191.4688779071914</v>
       </c>
     </row>
     <row r="3090" spans="1:2">
@@ -25183,7 +25183,7 @@
         <v>3105</v>
       </c>
       <c r="B3105">
-        <v>79.56559252223384</v>
+        <v>79.56559252223383</v>
       </c>
     </row>
     <row r="3106" spans="1:2">
@@ -25311,7 +25311,7 @@
         <v>3121</v>
       </c>
       <c r="B3121">
-        <v>61.84824664389701</v>
+        <v>61.848246643897</v>
       </c>
     </row>
     <row r="3122" spans="1:2">
@@ -25519,7 +25519,7 @@
         <v>3147</v>
       </c>
       <c r="B3147">
-        <v>19.84723672109778</v>
+        <v>19.84723672109777</v>
       </c>
     </row>
     <row r="3148" spans="1:2">
@@ -25575,7 +25575,7 @@
         <v>3154</v>
       </c>
       <c r="B3154">
-        <v>49.97599748193365</v>
+        <v>49.97599748193363</v>
       </c>
     </row>
     <row r="3155" spans="1:2">
@@ -25615,7 +25615,7 @@
         <v>3159</v>
       </c>
       <c r="B3159">
-        <v>207.045603612042</v>
+        <v>207.0456036120419</v>
       </c>
     </row>
     <row r="3160" spans="1:2">
@@ -25711,7 +25711,7 @@
         <v>3171</v>
       </c>
       <c r="B3171">
-        <v>15.88300545522432</v>
+        <v>15.88300545522431</v>
       </c>
     </row>
     <row r="3172" spans="1:2">
@@ -25759,7 +25759,7 @@
         <v>3177</v>
       </c>
       <c r="B3177">
-        <v>33.57307521199294</v>
+        <v>33.57307521199293</v>
       </c>
     </row>
     <row r="3178" spans="1:2">
@@ -25767,7 +25767,7 @@
         <v>3178</v>
       </c>
       <c r="B3178">
-        <v>40.70642429301009</v>
+        <v>40.70642429301008</v>
       </c>
     </row>
     <row r="3179" spans="1:2">
@@ -25959,7 +25959,7 @@
         <v>3202</v>
       </c>
       <c r="B3202">
-        <v>89.29874548011192</v>
+        <v>89.2987454801119</v>
       </c>
     </row>
     <row r="3203" spans="1:2">
@@ -25975,7 +25975,7 @@
         <v>3204</v>
       </c>
       <c r="B3204">
-        <v>90.53374683703083</v>
+        <v>90.5337468370308</v>
       </c>
     </row>
     <row r="3205" spans="1:2">
@@ -26223,7 +26223,7 @@
         <v>3235</v>
       </c>
       <c r="B3235">
-        <v>436.2318449818326</v>
+        <v>436.2318449818325</v>
       </c>
     </row>
     <row r="3236" spans="1:2">
@@ -26303,7 +26303,7 @@
         <v>3245</v>
       </c>
       <c r="B3245">
-        <v>25.05769103396049</v>
+        <v>25.05769103396048</v>
       </c>
     </row>
     <row r="3246" spans="1:2">
@@ -26607,7 +26607,7 @@
         <v>3283</v>
       </c>
       <c r="B3283">
-        <v>465.6790368044473</v>
+        <v>465.6790368044472</v>
       </c>
     </row>
     <row r="3284" spans="1:2">
@@ -26695,7 +26695,7 @@
         <v>3294</v>
       </c>
       <c r="B3294">
-        <v>92.80123746315365</v>
+        <v>92.80123746315364</v>
       </c>
     </row>
     <row r="3295" spans="1:2">
@@ -26751,7 +26751,7 @@
         <v>3301</v>
       </c>
       <c r="B3301">
-        <v>243.4007728869432</v>
+        <v>243.4007728869431</v>
       </c>
     </row>
     <row r="3302" spans="1:2">
@@ -26783,7 +26783,7 @@
         <v>3305</v>
       </c>
       <c r="B3305">
-        <v>469.9956801328902</v>
+        <v>469.9956801328901</v>
       </c>
     </row>
     <row r="3306" spans="1:2">
@@ -26815,7 +26815,7 @@
         <v>3309</v>
       </c>
       <c r="B3309">
-        <v>413.5674892779962</v>
+        <v>413.5674892779961</v>
       </c>
     </row>
     <row r="3310" spans="1:2">
@@ -26879,7 +26879,7 @@
         <v>3317</v>
       </c>
       <c r="B3317">
-        <v>96.39165075779378</v>
+        <v>96.39165075779377</v>
       </c>
     </row>
     <row r="3318" spans="1:2">
@@ -26919,7 +26919,7 @@
         <v>3322</v>
       </c>
       <c r="B3322">
-        <v>246.1099215683287</v>
+        <v>246.1099215683286</v>
       </c>
     </row>
     <row r="3323" spans="1:2">
@@ -27015,7 +27015,7 @@
         <v>3334</v>
       </c>
       <c r="B3334">
-        <v>290.0591475970227</v>
+        <v>290.0591475970226</v>
       </c>
     </row>
     <row r="3335" spans="1:2">
@@ -27071,7 +27071,7 @@
         <v>3341</v>
       </c>
       <c r="B3341">
-        <v>22.19374222995409</v>
+        <v>22.19374222995408</v>
       </c>
     </row>
     <row r="3342" spans="1:2">
@@ -27199,7 +27199,7 @@
         <v>3357</v>
       </c>
       <c r="B3357">
-        <v>269.0913801359968</v>
+        <v>269.0913801359967</v>
       </c>
     </row>
     <row r="3358" spans="1:2">
@@ -27247,7 +27247,7 @@
         <v>3363</v>
       </c>
       <c r="B3363">
-        <v>37.58386960448892</v>
+        <v>37.58386960448891</v>
       </c>
     </row>
     <row r="3364" spans="1:2">
@@ -27327,7 +27327,7 @@
         <v>3373</v>
       </c>
       <c r="B3373">
-        <v>257.2686013653594</v>
+        <v>257.2686013653593</v>
       </c>
     </row>
     <row r="3374" spans="1:2">
@@ -27535,7 +27535,7 @@
         <v>3399</v>
       </c>
       <c r="B3399">
-        <v>614.024855940931</v>
+        <v>614.0248559409309</v>
       </c>
     </row>
     <row r="3400" spans="1:2">
@@ -27711,7 +27711,7 @@
         <v>3421</v>
       </c>
       <c r="B3421">
-        <v>361.9893310419086</v>
+        <v>361.9893310419085</v>
       </c>
     </row>
     <row r="3422" spans="1:2">
@@ -27743,7 +27743,7 @@
         <v>3425</v>
       </c>
       <c r="B3425">
-        <v>452.7206077589972</v>
+        <v>452.7206077589971</v>
       </c>
     </row>
     <row r="3426" spans="1:2">
@@ -27759,7 +27759,7 @@
         <v>3427</v>
       </c>
       <c r="B3427">
-        <v>451.0459998440863</v>
+        <v>451.0459998440862</v>
       </c>
     </row>
     <row r="3428" spans="1:2">
@@ -27807,7 +27807,7 @@
         <v>3433</v>
       </c>
       <c r="B3433">
-        <v>54.98464014686377</v>
+        <v>54.98464014686376</v>
       </c>
     </row>
     <row r="3434" spans="1:2">
@@ -28095,7 +28095,7 @@
         <v>3469</v>
       </c>
       <c r="B3469">
-        <v>90.31921883673073</v>
+        <v>90.31921883673071</v>
       </c>
     </row>
     <row r="3470" spans="1:2">
@@ -28143,7 +28143,7 @@
         <v>3475</v>
       </c>
       <c r="B3475">
-        <v>401.3496507472433</v>
+        <v>401.3496507472432</v>
       </c>
     </row>
     <row r="3476" spans="1:2">
@@ -28191,7 +28191,7 @@
         <v>3481</v>
       </c>
       <c r="B3481">
-        <v>70.79394702799591</v>
+        <v>70.7939470279959</v>
       </c>
     </row>
     <row r="3482" spans="1:2">
@@ -28199,7 +28199,7 @@
         <v>3482</v>
       </c>
       <c r="B3482">
-        <v>42.57018025627305</v>
+        <v>42.57018025627304</v>
       </c>
     </row>
     <row r="3483" spans="1:2">
@@ -28215,7 +28215,7 @@
         <v>3484</v>
       </c>
       <c r="B3484">
-        <v>24.76626119311565</v>
+        <v>24.76626119311564</v>
       </c>
     </row>
     <row r="3485" spans="1:2">
@@ -28327,7 +28327,7 @@
         <v>3498</v>
       </c>
       <c r="B3498">
-        <v>641.7499623403717</v>
+        <v>641.7499623403714</v>
       </c>
     </row>
     <row r="3499" spans="1:2">
@@ -28367,7 +28367,7 @@
         <v>3503</v>
       </c>
       <c r="B3503">
-        <v>377.9473421680575</v>
+        <v>377.9473421680574</v>
       </c>
     </row>
     <row r="3504" spans="1:2">
@@ -28399,7 +28399,7 @@
         <v>3507</v>
       </c>
       <c r="B3507">
-        <v>275.7915702218724</v>
+        <v>275.7915702218723</v>
       </c>
     </row>
     <row r="3508" spans="1:2">
@@ -28407,7 +28407,7 @@
         <v>3508</v>
       </c>
       <c r="B3508">
-        <v>262.6150963236583</v>
+        <v>262.6150963236582</v>
       </c>
     </row>
     <row r="3509" spans="1:2">
@@ -28511,7 +28511,7 @@
         <v>3521</v>
       </c>
       <c r="B3521">
-        <v>585.6957301308095</v>
+        <v>585.6957301308094</v>
       </c>
     </row>
     <row r="3522" spans="1:2">
@@ -28535,7 +28535,7 @@
         <v>3524</v>
       </c>
       <c r="B3524">
-        <v>594.5839885913307</v>
+        <v>594.5839885913306</v>
       </c>
     </row>
     <row r="3525" spans="1:2">
@@ -28687,7 +28687,7 @@
         <v>3543</v>
       </c>
       <c r="B3543">
-        <v>382.1177430482085</v>
+        <v>382.1177430482084</v>
       </c>
     </row>
     <row r="3544" spans="1:2">
@@ -28719,7 +28719,7 @@
         <v>3547</v>
       </c>
       <c r="B3547">
-        <v>523.9113729733406</v>
+        <v>523.9113729733405</v>
       </c>
     </row>
     <row r="3548" spans="1:2">
@@ -28783,7 +28783,7 @@
         <v>3555</v>
       </c>
       <c r="B3555">
-        <v>360.2731070395078</v>
+        <v>360.2731070395077</v>
       </c>
     </row>
     <row r="3556" spans="1:2">
@@ -28831,7 +28831,7 @@
         <v>3561</v>
       </c>
       <c r="B3561">
-        <v>424.5260015556212</v>
+        <v>424.5260015556211</v>
       </c>
     </row>
     <row r="3562" spans="1:2">
@@ -28847,7 +28847,7 @@
         <v>3563</v>
       </c>
       <c r="B3563">
-        <v>503.4831492944902</v>
+        <v>503.4831492944901</v>
       </c>
     </row>
     <row r="3564" spans="1:2">
@@ -28999,7 +28999,7 @@
         <v>3582</v>
       </c>
       <c r="B3582">
-        <v>217.6577059219693</v>
+        <v>217.6577059219692</v>
       </c>
     </row>
     <row r="3583" spans="1:2">
@@ -29031,7 +29031,7 @@
         <v>3586</v>
       </c>
       <c r="B3586">
-        <v>348.4849106514325</v>
+        <v>348.4849106514324</v>
       </c>
     </row>
     <row r="3587" spans="1:2">
@@ -29063,7 +29063,7 @@
         <v>3590</v>
       </c>
       <c r="B3590">
-        <v>524.4658633784878</v>
+        <v>524.4658633784877</v>
       </c>
     </row>
     <row r="3591" spans="1:2">
@@ -29079,7 +29079,7 @@
         <v>3592</v>
       </c>
       <c r="B3592">
-        <v>572.0406712264613</v>
+        <v>572.0406712264612</v>
       </c>
     </row>
     <row r="3593" spans="1:2">
@@ -29095,7 +29095,7 @@
         <v>3594</v>
       </c>
       <c r="B3594">
-        <v>631.7386556597</v>
+        <v>631.7386556596999</v>
       </c>
     </row>
     <row r="3595" spans="1:2">
@@ -29103,7 +29103,7 @@
         <v>3595</v>
       </c>
       <c r="B3595">
-        <v>578.2200740766358</v>
+        <v>578.2200740766357</v>
       </c>
     </row>
     <row r="3596" spans="1:2">
@@ -29111,7 +29111,7 @@
         <v>3596</v>
       </c>
       <c r="B3596">
-        <v>488.035081775612</v>
+        <v>488.0350817756119</v>
       </c>
     </row>
     <row r="3597" spans="1:2">
@@ -29119,7 +29119,7 @@
         <v>3597</v>
       </c>
       <c r="B3597">
-        <v>436.3130256595418</v>
+        <v>436.3130256595417</v>
       </c>
     </row>
     <row r="3598" spans="1:2">
@@ -29143,7 +29143,7 @@
         <v>3600</v>
       </c>
       <c r="B3600">
-        <v>281.0225951909388</v>
+        <v>281.0225951909387</v>
       </c>
     </row>
     <row r="3601" spans="1:2">
@@ -29487,7 +29487,7 @@
         <v>3643</v>
       </c>
       <c r="B3643">
-        <v>643.6701637856808</v>
+        <v>643.6701637856806</v>
       </c>
     </row>
     <row r="3644" spans="1:2">
@@ -29495,7 +29495,7 @@
         <v>3644</v>
       </c>
       <c r="B3644">
-        <v>554.3640915296023</v>
+        <v>554.3640915296022</v>
       </c>
     </row>
     <row r="3645" spans="1:2">
@@ -29511,7 +29511,7 @@
         <v>3646</v>
       </c>
       <c r="B3646">
-        <v>429.1541793981611</v>
+        <v>429.154179398161</v>
       </c>
     </row>
     <row r="3647" spans="1:2">
@@ -29527,7 +29527,7 @@
         <v>3648</v>
       </c>
       <c r="B3648">
-        <v>319.8896763382064</v>
+        <v>319.8896763382063</v>
       </c>
     </row>
     <row r="3649" spans="1:2">
@@ -29535,7 +29535,7 @@
         <v>3649</v>
       </c>
       <c r="B3649">
-        <v>278.6692347504882</v>
+        <v>278.6692347504881</v>
       </c>
     </row>
     <row r="3650" spans="1:2">
@@ -29575,7 +29575,7 @@
         <v>3654</v>
       </c>
       <c r="B3654">
-        <v>192.2475676569147</v>
+        <v>192.2475676569146</v>
       </c>
     </row>
     <row r="3655" spans="1:2">
@@ -29807,7 +29807,7 @@
         <v>3683</v>
       </c>
       <c r="B3683">
-        <v>519.1017841578692</v>
+        <v>519.1017841578691</v>
       </c>
     </row>
     <row r="3684" spans="1:2">
@@ -29863,7 +29863,7 @@
         <v>3690</v>
       </c>
       <c r="B3690">
-        <v>747.8305416363095</v>
+        <v>747.8305416363094</v>
       </c>
     </row>
     <row r="3691" spans="1:2">
@@ -29927,7 +29927,7 @@
         <v>3698</v>
       </c>
       <c r="B3698">
-        <v>338.5117032057869</v>
+        <v>338.5117032057868</v>
       </c>
     </row>
     <row r="3699" spans="1:2">
@@ -29951,7 +29951,7 @@
         <v>3701</v>
       </c>
       <c r="B3701">
-        <v>281.5129030386192</v>
+        <v>281.5129030386191</v>
       </c>
     </row>
     <row r="3702" spans="1:2">
@@ -30055,7 +30055,7 @@
         <v>3714</v>
       </c>
       <c r="B3714">
-        <v>842.3145930034566</v>
+        <v>842.3145930034565</v>
       </c>
     </row>
     <row r="3715" spans="1:2">
@@ -30095,7 +30095,7 @@
         <v>3719</v>
       </c>
       <c r="B3719">
-        <v>530.1904199766599</v>
+        <v>530.1904199766598</v>
       </c>
     </row>
     <row r="3720" spans="1:2">
@@ -30247,7 +30247,7 @@
         <v>3738</v>
       </c>
       <c r="B3738">
-        <v>736.0224164176052</v>
+        <v>736.0224164176051</v>
       </c>
     </row>
     <row r="3739" spans="1:2">
@@ -30271,7 +30271,7 @@
         <v>3741</v>
       </c>
       <c r="B3741">
-        <v>585.3238229827482</v>
+        <v>585.3238229827481</v>
       </c>
     </row>
     <row r="3742" spans="1:2">
@@ -30311,7 +30311,7 @@
         <v>3746</v>
       </c>
       <c r="B3746">
-        <v>323.3376571080571</v>
+        <v>323.337657108057</v>
       </c>
     </row>
     <row r="3747" spans="1:2">
@@ -30375,7 +30375,7 @@
         <v>3754</v>
       </c>
       <c r="B3754">
-        <v>423.3455114118933</v>
+        <v>423.3455114118932</v>
       </c>
     </row>
     <row r="3755" spans="1:2">
@@ -30503,7 +30503,7 @@
         <v>3770</v>
       </c>
       <c r="B3770">
-        <v>338.9360700697685</v>
+        <v>338.9360700697684</v>
       </c>
     </row>
     <row r="3771" spans="1:2">
@@ -30511,7 +30511,7 @@
         <v>3771</v>
       </c>
       <c r="B3771">
-        <v>308.7972305959131</v>
+        <v>308.797230595913</v>
       </c>
     </row>
     <row r="3772" spans="1:2">
@@ -30559,7 +30559,7 @@
         <v>3777</v>
       </c>
       <c r="B3777">
-        <v>399.6639061328632</v>
+        <v>399.6639061328631</v>
       </c>
     </row>
     <row r="3778" spans="1:2">
@@ -30567,7 +30567,7 @@
         <v>3778</v>
       </c>
       <c r="B3778">
-        <v>523.357175639232</v>
+        <v>523.3571756392319</v>
       </c>
     </row>
     <row r="3779" spans="1:2">
@@ -30655,7 +30655,7 @@
         <v>3789</v>
       </c>
       <c r="B3789">
-        <v>515.2851200213826</v>
+        <v>515.2851200213825</v>
       </c>
     </row>
     <row r="3790" spans="1:2">
@@ -30751,7 +30751,7 @@
         <v>3801</v>
       </c>
       <c r="B3801">
-        <v>311.9128688079219</v>
+        <v>311.9128688079218</v>
       </c>
     </row>
     <row r="3802" spans="1:2">
@@ -30807,7 +30807,7 @@
         <v>3808</v>
       </c>
       <c r="B3808">
-        <v>615.2583919426565</v>
+        <v>615.2583919426564</v>
       </c>
     </row>
     <row r="3809" spans="1:2">
@@ -30823,7 +30823,7 @@
         <v>3810</v>
       </c>
       <c r="B3810">
-        <v>675.6204753495019</v>
+        <v>675.6204753495018</v>
       </c>
     </row>
     <row r="3811" spans="1:2">
@@ -30839,7 +30839,7 @@
         <v>3812</v>
       </c>
       <c r="B3812">
-        <v>562.7385964593502</v>
+        <v>562.7385964593501</v>
       </c>
     </row>
     <row r="3813" spans="1:2">
@@ -30895,7 +30895,7 @@
         <v>3819</v>
       </c>
       <c r="B3819">
-        <v>241.8791480542135</v>
+        <v>241.8791480542134</v>
       </c>
     </row>
     <row r="3820" spans="1:2">
@@ -31079,7 +31079,7 @@
         <v>3842</v>
       </c>
       <c r="B3842">
-        <v>254.7426220831373</v>
+        <v>254.7426220831372</v>
       </c>
     </row>
     <row r="3843" spans="1:2">
@@ -31183,7 +31183,7 @@
         <v>3855</v>
       </c>
       <c r="B3855">
-        <v>370.3093247584656</v>
+        <v>370.3093247584654</v>
       </c>
     </row>
     <row r="3856" spans="1:2">
@@ -31191,7 +31191,7 @@
         <v>3856</v>
       </c>
       <c r="B3856">
-        <v>423.4603952590485</v>
+        <v>423.4603952590484</v>
       </c>
     </row>
     <row r="3857" spans="1:2">
@@ -31223,7 +31223,7 @@
         <v>3860</v>
       </c>
       <c r="B3860">
-        <v>531.0611340325228</v>
+        <v>531.0611340325227</v>
       </c>
     </row>
     <row r="3861" spans="1:2">
@@ -31239,7 +31239,7 @@
         <v>3862</v>
       </c>
       <c r="B3862">
-        <v>424.4770586921647</v>
+        <v>424.4770586921646</v>
       </c>
     </row>
     <row r="3863" spans="1:2">
@@ -31247,7 +31247,7 @@
         <v>3863</v>
       </c>
       <c r="B3863">
-        <v>376.692118909471</v>
+        <v>376.6921189094709</v>
       </c>
     </row>
     <row r="3864" spans="1:2">
@@ -31295,7 +31295,7 @@
         <v>3869</v>
       </c>
       <c r="B3869">
-        <v>232.946928937893</v>
+        <v>232.9469289378929</v>
       </c>
     </row>
     <row r="3870" spans="1:2">
@@ -31367,7 +31367,7 @@
         <v>3878</v>
       </c>
       <c r="B3878">
-        <v>367.4533474867108</v>
+        <v>367.4533474867107</v>
       </c>
     </row>
     <row r="3879" spans="1:2">
@@ -31415,7 +31415,7 @@
         <v>3884</v>
       </c>
       <c r="B3884">
-        <v>554.3954501307391</v>
+        <v>554.3954501307389</v>
       </c>
     </row>
     <row r="3885" spans="1:2">
@@ -31423,7 +31423,7 @@
         <v>3885</v>
       </c>
       <c r="B3885">
-        <v>501.7883194779116</v>
+        <v>501.7883194779115</v>
       </c>
     </row>
     <row r="3886" spans="1:2">
@@ -31479,7 +31479,7 @@
         <v>3892</v>
       </c>
       <c r="B3892">
-        <v>247.6271503354785</v>
+        <v>247.6271503354784</v>
       </c>
     </row>
     <row r="3893" spans="1:2">
@@ -31559,7 +31559,7 @@
         <v>3902</v>
       </c>
       <c r="B3902">
-        <v>471.2350775553891</v>
+        <v>471.235077555389</v>
       </c>
     </row>
     <row r="3903" spans="1:2">
@@ -31743,7 +31743,7 @@
         <v>3925</v>
       </c>
       <c r="B3925">
-        <v>324.9738727169034</v>
+        <v>324.9738727169033</v>
       </c>
     </row>
     <row r="3926" spans="1:2">
@@ -31879,7 +31879,7 @@
         <v>3942</v>
       </c>
       <c r="B3942">
-        <v>82.95551591932576</v>
+        <v>82.95551591932575</v>
       </c>
     </row>
     <row r="3943" spans="1:2">
@@ -32079,7 +32079,7 @@
         <v>3967</v>
       </c>
       <c r="B3967">
-        <v>47.26239412076051</v>
+        <v>47.2623941207605</v>
       </c>
     </row>
     <row r="3968" spans="1:2">
@@ -32183,7 +32183,7 @@
         <v>3980</v>
       </c>
       <c r="B3980">
-        <v>412.6548660636047</v>
+        <v>412.6548660636046</v>
       </c>
     </row>
     <row r="3981" spans="1:2">
@@ -32263,7 +32263,7 @@
         <v>3990</v>
       </c>
       <c r="B3990">
-        <v>64.93369853892365</v>
+        <v>64.93369853892364</v>
       </c>
     </row>
     <row r="3991" spans="1:2">
@@ -32271,7 +32271,7 @@
         <v>3991</v>
       </c>
       <c r="B3991">
-        <v>44.84678539169824</v>
+        <v>44.84678539169823</v>
       </c>
     </row>
     <row r="3992" spans="1:2">
@@ -32343,7 +32343,7 @@
         <v>4000</v>
       </c>
       <c r="B4000">
-        <v>369.5212567355052</v>
+        <v>369.5212567355051</v>
       </c>
     </row>
     <row r="4001" spans="1:2">
@@ -32415,7 +32415,7 @@
         <v>4009</v>
       </c>
       <c r="B4009">
-        <v>197.5457058938345</v>
+        <v>197.5457058938344</v>
       </c>
     </row>
     <row r="4010" spans="1:2">
@@ -32471,7 +32471,7 @@
         <v>4016</v>
       </c>
       <c r="B4016">
-        <v>93.865378404533</v>
+        <v>93.86537840453298</v>
       </c>
     </row>
     <row r="4017" spans="1:2">
@@ -32687,7 +32687,7 @@
         <v>4043</v>
       </c>
       <c r="B4043">
-        <v>335.9417632677656</v>
+        <v>335.9417632677655</v>
       </c>
     </row>
     <row r="4044" spans="1:2">
@@ -32727,7 +32727,7 @@
         <v>4048</v>
       </c>
       <c r="B4048">
-        <v>630.5684230023253</v>
+        <v>630.5684230023252</v>
       </c>
     </row>
     <row r="4049" spans="1:2">
@@ -32735,7 +32735,7 @@
         <v>4049</v>
       </c>
       <c r="B4049">
-        <v>642.9453991070712</v>
+        <v>642.9453991070711</v>
       </c>
     </row>
     <row r="4050" spans="1:2">
@@ -32751,7 +32751,7 @@
         <v>4051</v>
       </c>
       <c r="B4051">
-        <v>658.8823091184365</v>
+        <v>658.8823091184364</v>
       </c>
     </row>
     <row r="4052" spans="1:2">
@@ -32943,7 +32943,7 @@
         <v>4075</v>
       </c>
       <c r="B4075">
-        <v>677.7481710901833</v>
+        <v>677.7481710901832</v>
       </c>
     </row>
     <row r="4076" spans="1:2">
@@ -32959,7 +32959,7 @@
         <v>4077</v>
       </c>
       <c r="B4077">
-        <v>552.8541895384191</v>
+        <v>552.854189538419</v>
       </c>
     </row>
     <row r="4078" spans="1:2">
@@ -32967,7 +32967,7 @@
         <v>4078</v>
       </c>
       <c r="B4078">
-        <v>507.1151786766202</v>
+        <v>507.1151786766201</v>
       </c>
     </row>
     <row r="4079" spans="1:2">
@@ -32975,7 +32975,7 @@
         <v>4079</v>
       </c>
       <c r="B4079">
-        <v>449.5278918638205</v>
+        <v>449.5278918638204</v>
       </c>
     </row>
     <row r="4080" spans="1:2">
@@ -33063,7 +33063,7 @@
         <v>4090</v>
       </c>
       <c r="B4090">
-        <v>438.9269262533624</v>
+        <v>438.9269262533622</v>
       </c>
     </row>
     <row r="4091" spans="1:2">
@@ -33095,7 +33095,7 @@
         <v>4094</v>
       </c>
       <c r="B4094">
-        <v>651.9303710103508</v>
+        <v>651.9303710103507</v>
       </c>
     </row>
     <row r="4095" spans="1:2">
@@ -33295,7 +33295,7 @@
         <v>4119</v>
       </c>
       <c r="B4119">
-        <v>610.6668479799494</v>
+        <v>610.6668479799492</v>
       </c>
     </row>
     <row r="4120" spans="1:2">
@@ -33663,7 +33663,7 @@
         <v>4165</v>
       </c>
       <c r="B4165">
-        <v>317.3003937116334</v>
+        <v>317.3003937116333</v>
       </c>
     </row>
     <row r="4166" spans="1:2">
@@ -33719,7 +33719,7 @@
         <v>4172</v>
       </c>
       <c r="B4172">
-        <v>436.3317822060161</v>
+        <v>436.331782206016</v>
       </c>
     </row>
     <row r="4173" spans="1:2">
@@ -33791,7 +33791,7 @@
         <v>4181</v>
       </c>
       <c r="B4181">
-        <v>82.76003753653865</v>
+        <v>82.76003753653863</v>
       </c>
     </row>
     <row r="4182" spans="1:2">
@@ -33799,7 +33799,7 @@
         <v>4182</v>
       </c>
       <c r="B4182">
-        <v>98.10699554707865</v>
+        <v>98.10699554707864</v>
       </c>
     </row>
     <row r="4183" spans="1:2">
@@ -34047,7 +34047,7 @@
         <v>4213</v>
       </c>
       <c r="B4213">
-        <v>371.9537463563944</v>
+        <v>371.9537463563943</v>
       </c>
     </row>
     <row r="4214" spans="1:2">
@@ -34119,7 +34119,7 @@
         <v>4222</v>
       </c>
       <c r="B4222">
-        <v>366.2526354413152</v>
+        <v>366.2526354413151</v>
       </c>
     </row>
     <row r="4223" spans="1:2">
@@ -34151,7 +34151,7 @@
         <v>4226</v>
       </c>
       <c r="B4226">
-        <v>169.6810976799911</v>
+        <v>169.681097679991</v>
       </c>
     </row>
     <row r="4227" spans="1:2">
@@ -34215,7 +34215,7 @@
         <v>4234</v>
       </c>
       <c r="B4234">
-        <v>338.986771359457</v>
+        <v>338.9867713594569</v>
       </c>
     </row>
     <row r="4235" spans="1:2">
@@ -34287,7 +34287,7 @@
         <v>4243</v>
       </c>
       <c r="B4243">
-        <v>663.4899719882702</v>
+        <v>663.4899719882701</v>
       </c>
     </row>
     <row r="4244" spans="1:2">
@@ -34319,7 +34319,7 @@
         <v>4247</v>
       </c>
       <c r="B4247">
-        <v>446.3732752036698</v>
+        <v>446.3732752036697</v>
       </c>
     </row>
     <row r="4248" spans="1:2">
@@ -34455,7 +34455,7 @@
         <v>4264</v>
       </c>
       <c r="B4264">
-        <v>682.7157251954932</v>
+        <v>682.715725195493</v>
       </c>
     </row>
     <row r="4265" spans="1:2">
@@ -34487,7 +34487,7 @@
         <v>4268</v>
       </c>
       <c r="B4268">
-        <v>709.5126756154932</v>
+        <v>709.5126756154931</v>
       </c>
     </row>
     <row r="4269" spans="1:2">
@@ -34535,7 +34535,7 @@
         <v>4274</v>
       </c>
       <c r="B4274">
-        <v>461.0889581969333</v>
+        <v>461.0889581969332</v>
       </c>
     </row>
     <row r="4275" spans="1:2">
@@ -34567,7 +34567,7 @@
         <v>4278</v>
       </c>
       <c r="B4278">
-        <v>435.676768434608</v>
+        <v>435.6767684346079</v>
       </c>
     </row>
     <row r="4279" spans="1:2">
@@ -34615,7 +34615,7 @@
         <v>4284</v>
       </c>
       <c r="B4284">
-        <v>766.1521706892622</v>
+        <v>766.152170689262</v>
       </c>
     </row>
     <row r="4285" spans="1:2">
@@ -34639,7 +34639,7 @@
         <v>4287</v>
       </c>
       <c r="B4287">
-        <v>889.9248624471081</v>
+        <v>889.9248624471079</v>
       </c>
     </row>
     <row r="4288" spans="1:2">
@@ -34751,7 +34751,7 @@
         <v>4301</v>
       </c>
       <c r="B4301">
-        <v>386.1612441686191</v>
+        <v>386.161244168619</v>
       </c>
     </row>
     <row r="4302" spans="1:2">
@@ -34935,7 +34935,7 @@
         <v>4324</v>
       </c>
       <c r="B4324">
-        <v>346.5735013372832</v>
+        <v>346.5735013372831</v>
       </c>
     </row>
     <row r="4325" spans="1:2">
@@ -34983,7 +34983,7 @@
         <v>4330</v>
       </c>
       <c r="B4330">
-        <v>477.0047670935149</v>
+        <v>477.0047670935148</v>
       </c>
     </row>
     <row r="4331" spans="1:2">
@@ -35039,7 +35039,7 @@
         <v>4337</v>
       </c>
       <c r="B4337">
-        <v>627.8891675668833</v>
+        <v>627.8891675668832</v>
       </c>
     </row>
     <row r="4338" spans="1:2">
@@ -35199,7 +35199,7 @@
         <v>4357</v>
       </c>
       <c r="B4357">
-        <v>452.7751189721882</v>
+        <v>452.7751189721881</v>
       </c>
     </row>
     <row r="4358" spans="1:2">
@@ -35255,7 +35255,7 @@
         <v>4364</v>
       </c>
       <c r="B4364">
-        <v>651.5482063759364</v>
+        <v>651.5482063759363</v>
       </c>
     </row>
     <row r="4365" spans="1:2">
@@ -35359,7 +35359,7 @@
         <v>4377</v>
       </c>
       <c r="B4377">
-        <v>327.1425984029974</v>
+        <v>327.1425984029973</v>
       </c>
     </row>
     <row r="4378" spans="1:2">
@@ -35375,7 +35375,7 @@
         <v>4379</v>
       </c>
       <c r="B4379">
-        <v>436.6471266436157</v>
+        <v>436.6471266436156</v>
       </c>
     </row>
     <row r="4380" spans="1:2">
@@ -35391,7 +35391,7 @@
         <v>4381</v>
       </c>
       <c r="B4381">
-        <v>624.3095979006736</v>
+        <v>624.3095979006735</v>
       </c>
     </row>
     <row r="4382" spans="1:2">
@@ -35447,7 +35447,7 @@
         <v>4388</v>
       </c>
       <c r="B4388">
-        <v>698.2836587691838</v>
+        <v>698.2836587691837</v>
       </c>
     </row>
     <row r="4389" spans="1:2">
@@ -35479,7 +35479,7 @@
         <v>4392</v>
       </c>
       <c r="B4392">
-        <v>532.499233619234</v>
+        <v>532.4992336192339</v>
       </c>
     </row>
     <row r="4393" spans="1:2">
@@ -35487,7 +35487,7 @@
         <v>4393</v>
       </c>
       <c r="B4393">
-        <v>504.3353998749174</v>
+        <v>504.3353998749172</v>
       </c>
     </row>
     <row r="4394" spans="1:2">
@@ -35559,7 +35559,7 @@
         <v>4402</v>
       </c>
       <c r="B4402">
-        <v>576.8139192331387</v>
+        <v>576.8139192331386</v>
       </c>
     </row>
     <row r="4403" spans="1:2">
@@ -35639,7 +35639,7 @@
         <v>4412</v>
       </c>
       <c r="B4412">
-        <v>718.2672936823849</v>
+        <v>718.2672936823848</v>
       </c>
     </row>
     <row r="4413" spans="1:2">
@@ -35647,7 +35647,7 @@
         <v>4413</v>
       </c>
       <c r="B4413">
-        <v>662.0574407512935</v>
+        <v>662.0574407512934</v>
       </c>
     </row>
     <row r="4414" spans="1:2">
@@ -35783,7 +35783,7 @@
         <v>4430</v>
       </c>
       <c r="B4430">
-        <v>309.3335505966634</v>
+        <v>309.3335505966633</v>
       </c>
     </row>
     <row r="4431" spans="1:2">
@@ -35815,7 +35815,7 @@
         <v>4434</v>
       </c>
       <c r="B4434">
-        <v>540.0302800997146</v>
+        <v>540.0302800997144</v>
       </c>
     </row>
     <row r="4435" spans="1:2">
@@ -35831,7 +35831,7 @@
         <v>4436</v>
       </c>
       <c r="B4436">
-        <v>457.2171967051782</v>
+        <v>457.2171967051781</v>
       </c>
     </row>
     <row r="4437" spans="1:2">
@@ -35839,7 +35839,7 @@
         <v>4437</v>
       </c>
       <c r="B4437">
-        <v>405.3817220971461</v>
+        <v>405.381722097146</v>
       </c>
     </row>
     <row r="4438" spans="1:2">
@@ -35847,7 +35847,7 @@
         <v>4438</v>
       </c>
       <c r="B4438">
-        <v>360.4158326353359</v>
+        <v>360.4158326353358</v>
       </c>
     </row>
     <row r="4439" spans="1:2">
@@ -35943,7 +35943,7 @@
         <v>4450</v>
       </c>
       <c r="B4450">
-        <v>403.0907857879304</v>
+        <v>403.0907857879303</v>
       </c>
     </row>
     <row r="4451" spans="1:2">
@@ -35951,7 +35951,7 @@
         <v>4451</v>
       </c>
       <c r="B4451">
-        <v>488.9544456238926</v>
+        <v>488.9544456238925</v>
       </c>
     </row>
     <row r="4452" spans="1:2">
@@ -35983,7 +35983,7 @@
         <v>4455</v>
       </c>
       <c r="B4455">
-        <v>613.5685443337353</v>
+        <v>613.5685443337352</v>
       </c>
     </row>
     <row r="4456" spans="1:2">
@@ -36095,7 +36095,7 @@
         <v>4469</v>
       </c>
       <c r="B4469">
-        <v>238.9118037877674</v>
+        <v>238.9118037877673</v>
       </c>
     </row>
     <row r="4470" spans="1:2">
@@ -36207,7 +36207,7 @@
         <v>4483</v>
       </c>
       <c r="B4483">
-        <v>697.8065391182431</v>
+        <v>697.806539118243</v>
       </c>
     </row>
     <row r="4484" spans="1:2">
@@ -36423,7 +36423,7 @@
         <v>4510</v>
       </c>
       <c r="B4510">
-        <v>500.0756123279747</v>
+        <v>500.0756123279746</v>
       </c>
     </row>
     <row r="4511" spans="1:2">
@@ -36439,7 +36439,7 @@
         <v>4512</v>
       </c>
       <c r="B4512">
-        <v>389.0307027081523</v>
+        <v>389.0307027081522</v>
       </c>
     </row>
     <row r="4513" spans="1:2">
@@ -36455,7 +36455,7 @@
         <v>4514</v>
       </c>
       <c r="B4514">
-        <v>312.1353097262659</v>
+        <v>312.1353097262658</v>
       </c>
     </row>
     <row r="4515" spans="1:2">
@@ -36535,7 +36535,7 @@
         <v>4524</v>
       </c>
       <c r="B4524">
-        <v>457.3215299949417</v>
+        <v>457.3215299949416</v>
       </c>
     </row>
     <row r="4525" spans="1:2">
@@ -36567,7 +36567,7 @@
         <v>4528</v>
       </c>
       <c r="B4528">
-        <v>536.6300699091656</v>
+        <v>536.6300699091655</v>
       </c>
     </row>
     <row r="4529" spans="1:2">
@@ -36583,7 +36583,7 @@
         <v>4530</v>
       </c>
       <c r="B4530">
-        <v>719.5987154110235</v>
+        <v>719.5987154110234</v>
       </c>
     </row>
     <row r="4531" spans="1:2">
@@ -36591,7 +36591,7 @@
         <v>4531</v>
       </c>
       <c r="B4531">
-        <v>685.6030610683847</v>
+        <v>685.6030610683846</v>
       </c>
     </row>
     <row r="4532" spans="1:2">
@@ -36615,7 +36615,7 @@
         <v>4534</v>
       </c>
       <c r="B4534">
-        <v>515.940719934868</v>
+        <v>515.9407199348678</v>
       </c>
     </row>
     <row r="4535" spans="1:2">
@@ -36711,7 +36711,7 @@
         <v>4546</v>
       </c>
       <c r="B4546">
-        <v>502.1778108882925</v>
+        <v>502.1778108882924</v>
       </c>
     </row>
     <row r="4547" spans="1:2">
@@ -36751,7 +36751,7 @@
         <v>4551</v>
       </c>
       <c r="B4551">
-        <v>648.4665644044123</v>
+        <v>648.4665644044122</v>
       </c>
     </row>
     <row r="4552" spans="1:2">
@@ -36767,7 +36767,7 @@
         <v>4553</v>
       </c>
       <c r="B4553">
-        <v>679.9749248419322</v>
+        <v>679.9749248419321</v>
       </c>
     </row>
     <row r="4554" spans="1:2">
@@ -36783,7 +36783,7 @@
         <v>4555</v>
       </c>
       <c r="B4555">
-        <v>719.6590880449877</v>
+        <v>719.6590880449876</v>
       </c>
     </row>
     <row r="4556" spans="1:2">
@@ -36855,7 +36855,7 @@
         <v>4564</v>
       </c>
       <c r="B4564">
-        <v>329.1650816407993</v>
+        <v>329.1650816407992</v>
       </c>
     </row>
     <row r="4565" spans="1:2">
@@ -36871,7 +36871,7 @@
         <v>4566</v>
       </c>
       <c r="B4566">
-        <v>339.9363215247197</v>
+        <v>339.9363215247196</v>
       </c>
     </row>
     <row r="4567" spans="1:2">
@@ -36895,7 +36895,7 @@
         <v>4569</v>
       </c>
       <c r="B4569">
-        <v>371.3365387489736</v>
+        <v>371.3365387489735</v>
       </c>
     </row>
     <row r="4570" spans="1:2">
@@ -36911,7 +36911,7 @@
         <v>4571</v>
       </c>
       <c r="B4571">
-        <v>442.212252596756</v>
+        <v>442.2122525967559</v>
       </c>
     </row>
     <row r="4572" spans="1:2">
@@ -36927,7 +36927,7 @@
         <v>4573</v>
       </c>
       <c r="B4573">
-        <v>515.2637258355602</v>
+        <v>515.2637258355601</v>
       </c>
     </row>
     <row r="4574" spans="1:2">
@@ -36959,7 +36959,7 @@
         <v>4577</v>
       </c>
       <c r="B4577">
-        <v>655.3094800861161</v>
+        <v>655.309480086116</v>
       </c>
     </row>
     <row r="4578" spans="1:2">
@@ -36967,7 +36967,7 @@
         <v>4578</v>
       </c>
       <c r="B4578">
-        <v>735.0195273233061</v>
+        <v>735.019527323306</v>
       </c>
     </row>
     <row r="4579" spans="1:2">
@@ -36991,7 +36991,7 @@
         <v>4581</v>
       </c>
       <c r="B4581">
-        <v>612.5102648131292</v>
+        <v>612.5102648131291</v>
       </c>
     </row>
     <row r="4582" spans="1:2">
@@ -37207,7 +37207,7 @@
         <v>4608</v>
       </c>
       <c r="B4608">
-        <v>459.762518675952</v>
+        <v>459.7625186759519</v>
       </c>
     </row>
     <row r="4609" spans="1:2">
@@ -37255,7 +37255,7 @@
         <v>4614</v>
       </c>
       <c r="B4614">
-        <v>353.5723308115548</v>
+        <v>353.5723308115547</v>
       </c>
     </row>
     <row r="4615" spans="1:2">
@@ -37335,7 +37335,7 @@
         <v>4624</v>
       </c>
       <c r="B4624">
-        <v>521.7874871561618</v>
+        <v>521.7874871561617</v>
       </c>
     </row>
     <row r="4625" spans="1:2">
@@ -37391,7 +37391,7 @@
         <v>4631</v>
       </c>
       <c r="B4631">
-        <v>386.6377776774824</v>
+        <v>386.6377776774823</v>
       </c>
     </row>
     <row r="4632" spans="1:2">
@@ -37399,7 +37399,7 @@
         <v>4632</v>
       </c>
       <c r="B4632">
-        <v>342.8092969167169</v>
+        <v>342.8092969167168</v>
       </c>
     </row>
     <row r="4633" spans="1:2">
@@ -37503,7 +37503,7 @@
         <v>4645</v>
       </c>
       <c r="B4645">
-        <v>456.8282914368747</v>
+        <v>456.8282914368746</v>
       </c>
     </row>
     <row r="4646" spans="1:2">
@@ -37519,7 +37519,7 @@
         <v>4647</v>
       </c>
       <c r="B4647">
-        <v>588.2290361889981</v>
+        <v>588.229036188998</v>
       </c>
     </row>
     <row r="4648" spans="1:2">
@@ -37535,7 +37535,7 @@
         <v>4649</v>
       </c>
       <c r="B4649">
-        <v>635.709182091484</v>
+        <v>635.7091820914839</v>
       </c>
     </row>
     <row r="4650" spans="1:2">
@@ -37543,7 +37543,7 @@
         <v>4650</v>
       </c>
       <c r="B4650">
-        <v>735.1707519792553</v>
+        <v>735.1707519792552</v>
       </c>
     </row>
     <row r="4651" spans="1:2">
@@ -37599,7 +37599,7 @@
         <v>4657</v>
       </c>
       <c r="B4657">
-        <v>394.0489581031505</v>
+        <v>394.0489581031504</v>
       </c>
     </row>
     <row r="4658" spans="1:2">
@@ -37631,7 +37631,7 @@
         <v>4661</v>
       </c>
       <c r="B4661">
-        <v>309.023188366721</v>
+        <v>309.0231883667209</v>
       </c>
     </row>
     <row r="4662" spans="1:2">
@@ -37655,7 +37655,7 @@
         <v>4664</v>
       </c>
       <c r="B4664">
-        <v>239.354341056146</v>
+        <v>239.3543410561459</v>
       </c>
     </row>
     <row r="4665" spans="1:2">
@@ -37687,7 +37687,7 @@
         <v>4668</v>
       </c>
       <c r="B4668">
-        <v>463.728649042156</v>
+        <v>463.7286490421559</v>
       </c>
     </row>
     <row r="4669" spans="1:2">
@@ -37743,7 +37743,7 @@
         <v>4675</v>
       </c>
       <c r="B4675">
-        <v>816.293401622793</v>
+        <v>816.2934016227929</v>
       </c>
     </row>
     <row r="4676" spans="1:2">
@@ -37815,7 +37815,7 @@
         <v>4684</v>
       </c>
       <c r="B4684">
-        <v>421.1310666437681</v>
+        <v>421.131066643768</v>
       </c>
     </row>
     <row r="4685" spans="1:2">
@@ -37831,7 +37831,7 @@
         <v>4686</v>
       </c>
       <c r="B4686">
-        <v>424.8152626707799</v>
+        <v>424.8152626707798</v>
       </c>
     </row>
     <row r="4687" spans="1:2">
@@ -37839,7 +37839,7 @@
         <v>4687</v>
       </c>
       <c r="B4687">
-        <v>288.2881193103922</v>
+        <v>288.2881193103921</v>
       </c>
     </row>
     <row r="4688" spans="1:2">
@@ -37871,7 +37871,7 @@
         <v>4691</v>
       </c>
       <c r="B4691">
-        <v>634.5034878384312</v>
+        <v>634.5034878384311</v>
       </c>
     </row>
     <row r="4692" spans="1:2">
@@ -37887,7 +37887,7 @@
         <v>4693</v>
       </c>
       <c r="B4693">
-        <v>668.6002516894081</v>
+        <v>668.600251689408</v>
       </c>
     </row>
     <row r="4694" spans="1:2">
@@ -37927,7 +37927,7 @@
         <v>4698</v>
       </c>
       <c r="B4698">
-        <v>946.9934135214772</v>
+        <v>946.9934135214771</v>
       </c>
     </row>
     <row r="4699" spans="1:2">
@@ -37951,7 +37951,7 @@
         <v>4701</v>
       </c>
       <c r="B4701">
-        <v>725.6688027637772</v>
+        <v>725.6688027637771</v>
       </c>
     </row>
     <row r="4702" spans="1:2">
@@ -37975,7 +37975,7 @@
         <v>4704</v>
       </c>
       <c r="B4704">
-        <v>569.3713802063338</v>
+        <v>569.3713802063337</v>
       </c>
     </row>
     <row r="4705" spans="1:2">
@@ -38039,7 +38039,7 @@
         <v>4712</v>
       </c>
       <c r="B4712">
-        <v>564.3918101884389</v>
+        <v>564.3918101884387</v>
       </c>
     </row>
     <row r="4713" spans="1:2">
@@ -38079,7 +38079,7 @@
         <v>4717</v>
       </c>
       <c r="B4717">
-        <v>793.9294437335844</v>
+        <v>793.9294437335843</v>
       </c>
     </row>
     <row r="4718" spans="1:2">
@@ -38095,7 +38095,7 @@
         <v>4719</v>
       </c>
       <c r="B4719">
-        <v>870.9250670106931</v>
+        <v>870.9250670106929</v>
       </c>
     </row>
     <row r="4720" spans="1:2">
@@ -38207,7 +38207,7 @@
         <v>4733</v>
       </c>
       <c r="B4733">
-        <v>376.8673753905905</v>
+        <v>376.8673753905904</v>
       </c>
     </row>
     <row r="4734" spans="1:2">
@@ -38231,7 +38231,7 @@
         <v>4736</v>
       </c>
       <c r="B4736">
-        <v>470.3362286798147</v>
+        <v>470.3362286798146</v>
       </c>
     </row>
     <row r="4737" spans="1:2">
@@ -38239,7 +38239,7 @@
         <v>4737</v>
       </c>
       <c r="B4737">
-        <v>559.9277521275493</v>
+        <v>559.9277521275492</v>
       </c>
     </row>
     <row r="4738" spans="1:2">
@@ -38247,7 +38247,7 @@
         <v>4738</v>
       </c>
       <c r="B4738">
-        <v>642.2464246798639</v>
+        <v>642.2464246798638</v>
       </c>
     </row>
     <row r="4739" spans="1:2">
@@ -38279,7 +38279,7 @@
         <v>4742</v>
       </c>
       <c r="B4742">
-        <v>723.2240041592643</v>
+        <v>723.2240041592642</v>
       </c>
     </row>
     <row r="4743" spans="1:2">
@@ -38303,7 +38303,7 @@
         <v>4745</v>
       </c>
       <c r="B4745">
-        <v>766.5973455969887</v>
+        <v>766.5973455969886</v>
       </c>
     </row>
     <row r="4746" spans="1:2">
@@ -38439,7 +38439,7 @@
         <v>4762</v>
       </c>
       <c r="B4762">
-        <v>563.4859276079367</v>
+        <v>563.4859276079366</v>
       </c>
     </row>
     <row r="4763" spans="1:2">
@@ -38511,7 +38511,7 @@
         <v>4771</v>
       </c>
       <c r="B4771">
-        <v>656.8533783177841</v>
+        <v>656.8533783177839</v>
       </c>
     </row>
     <row r="4772" spans="1:2">
@@ -38663,7 +38663,7 @@
         <v>4790</v>
       </c>
       <c r="B4790">
-        <v>544.2414178542394</v>
+        <v>544.2414178542393</v>
       </c>
     </row>
     <row r="4791" spans="1:2">
@@ -38719,7 +38719,7 @@
         <v>4797</v>
       </c>
       <c r="B4797">
-        <v>543.2273920604712</v>
+        <v>543.2273920604711</v>
       </c>
     </row>
     <row r="4798" spans="1:2">
@@ -38879,7 +38879,7 @@
         <v>4817</v>
       </c>
       <c r="B4817">
-        <v>603.4303378933234</v>
+        <v>603.4303378933233</v>
       </c>
     </row>
     <row r="4818" spans="1:2">
@@ -39079,7 +39079,7 @@
         <v>4842</v>
       </c>
       <c r="B4842">
-        <v>683.0225705729715</v>
+        <v>683.0225705729714</v>
       </c>
     </row>
     <row r="4843" spans="1:2">
@@ -39143,7 +39143,7 @@
         <v>4850</v>
       </c>
       <c r="B4850">
-        <v>378.5525338628932</v>
+        <v>378.5525338628931</v>
       </c>
     </row>
     <row r="4851" spans="1:2">
@@ -39167,7 +39167,7 @@
         <v>4853</v>
       </c>
       <c r="B4853">
-        <v>332.1195307815442</v>
+        <v>332.1195307815443</v>
       </c>
     </row>
     <row r="4854" spans="1:2">
@@ -39319,7 +39319,7 @@
         <v>4872</v>
       </c>
       <c r="B4872">
-        <v>415.6403807344478</v>
+        <v>415.6403807344477</v>
       </c>
     </row>
     <row r="4873" spans="1:2">
@@ -39439,7 +39439,7 @@
         <v>4887</v>
       </c>
       <c r="B4887">
-        <v>626.5595042644768</v>
+        <v>626.5595042644767</v>
       </c>
     </row>
     <row r="4888" spans="1:2">
@@ -39495,7 +39495,7 @@
         <v>4894</v>
       </c>
       <c r="B4894">
-        <v>543.9621211543952</v>
+        <v>543.962121154395</v>
       </c>
     </row>
     <row r="4895" spans="1:2">
@@ -39503,7 +39503,7 @@
         <v>4895</v>
       </c>
       <c r="B4895">
-        <v>476.3969377593313</v>
+        <v>476.3969377593312</v>
       </c>
     </row>
     <row r="4896" spans="1:2">
@@ -39543,7 +39543,7 @@
         <v>4900</v>
       </c>
       <c r="B4900">
-        <v>300.9745784319645</v>
+        <v>300.9745784319644</v>
       </c>
     </row>
     <row r="4901" spans="1:2">
@@ -39583,7 +39583,7 @@
         <v>4905</v>
       </c>
       <c r="B4905">
-        <v>395.5143132964572</v>
+        <v>395.5143132964571</v>
       </c>
     </row>
     <row r="4906" spans="1:2">
@@ -39647,7 +39647,7 @@
         <v>4913</v>
       </c>
       <c r="B4913">
-        <v>699.4333764538522</v>
+        <v>699.4333764538521</v>
       </c>
     </row>
     <row r="4914" spans="1:2">
@@ -39655,7 +39655,7 @@
         <v>4914</v>
       </c>
       <c r="B4914">
-        <v>762.2478783122157</v>
+        <v>762.2478783122156</v>
       </c>
     </row>
     <row r="4915" spans="1:2">
@@ -39663,7 +39663,7 @@
         <v>4915</v>
       </c>
       <c r="B4915">
-        <v>718.4243797591074</v>
+        <v>718.4243797591073</v>
       </c>
     </row>
     <row r="4916" spans="1:2">
@@ -39671,7 +39671,7 @@
         <v>4916</v>
       </c>
       <c r="B4916">
-        <v>647.3895283373319</v>
+        <v>647.3895283373317</v>
       </c>
     </row>
     <row r="4917" spans="1:2">
@@ -39807,7 +39807,7 @@
         <v>4933</v>
       </c>
       <c r="B4933">
-        <v>570.6356886671189</v>
+        <v>570.6356886671188</v>
       </c>
     </row>
     <row r="4934" spans="1:2">
@@ -39943,7 +39943,7 @@
         <v>4950</v>
       </c>
       <c r="B4950">
-        <v>452.8398876717324</v>
+        <v>452.8398876717323</v>
       </c>
     </row>
     <row r="4951" spans="1:2">
@@ -40103,7 +40103,7 @@
         <v>4970</v>
       </c>
       <c r="B4970">
-        <v>475.5780972773115</v>
+        <v>475.5780972773114</v>
       </c>
     </row>
     <row r="4971" spans="1:2">
@@ -40111,7 +40111,7 @@
         <v>4971</v>
       </c>
       <c r="B4971">
-        <v>449.239216890739</v>
+        <v>449.2392168907389</v>
       </c>
     </row>
     <row r="4972" spans="1:2">
@@ -40135,7 +40135,7 @@
         <v>4974</v>
       </c>
       <c r="B4974">
-        <v>449.885731602026</v>
+        <v>449.8857316020259</v>
       </c>
     </row>
     <row r="4975" spans="1:2">
@@ -40183,7 +40183,7 @@
         <v>4980</v>
       </c>
       <c r="B4980">
-        <v>743.5007101111268</v>
+        <v>743.5007101111266</v>
       </c>
     </row>
     <row r="4981" spans="1:2">
@@ -40199,7 +40199,7 @@
         <v>4982</v>
       </c>
       <c r="B4982">
-        <v>832.5386223668302</v>
+        <v>832.5386223668299</v>
       </c>
     </row>
     <row r="4983" spans="1:2">
@@ -40215,7 +40215,7 @@
         <v>4984</v>
       </c>
       <c r="B4984">
-        <v>920.093595166907</v>
+        <v>920.0935951669069</v>
       </c>
     </row>
     <row r="4985" spans="1:2">
@@ -40247,7 +40247,7 @@
         <v>4988</v>
       </c>
       <c r="B4988">
-        <v>758.8910426353887</v>
+        <v>758.8910426353885</v>
       </c>
     </row>
     <row r="4989" spans="1:2">
@@ -40319,7 +40319,7 @@
         <v>4997</v>
       </c>
       <c r="B4997">
-        <v>407.3256622965868</v>
+        <v>407.3256622965867</v>
       </c>
     </row>
     <row r="4998" spans="1:2">
@@ -40359,7 +40359,7 @@
         <v>5002</v>
       </c>
       <c r="B5002">
-        <v>554.881948054917</v>
+        <v>554.8819480549168</v>
       </c>
     </row>
     <row r="5003" spans="1:2">
@@ -40383,7 +40383,7 @@
         <v>5005</v>
       </c>
       <c r="B5005">
-        <v>562.2676313002214</v>
+        <v>562.2676313002213</v>
       </c>
     </row>
     <row r="5006" spans="1:2">
@@ -40423,7 +40423,7 @@
         <v>5010</v>
       </c>
       <c r="B5010">
-        <v>871.8353456567752</v>
+        <v>871.8353456567751</v>
       </c>
     </row>
     <row r="5011" spans="1:2">
@@ -40439,7 +40439,7 @@
         <v>5012</v>
       </c>
       <c r="B5012">
-        <v>739.6775984117895</v>
+        <v>739.6775984117894</v>
       </c>
     </row>
     <row r="5013" spans="1:2">
@@ -40455,7 +40455,7 @@
         <v>5014</v>
       </c>
       <c r="B5014">
-        <v>655.3170999331213</v>
+        <v>655.3170999331212</v>
       </c>
     </row>
     <row r="5015" spans="1:2">
@@ -40559,7 +40559,7 @@
         <v>5027</v>
       </c>
       <c r="B5027">
-        <v>534.8402850760608</v>
+        <v>534.8402850760607</v>
       </c>
     </row>
     <row r="5028" spans="1:2">
@@ -40575,7 +40575,7 @@
         <v>5029</v>
       </c>
       <c r="B5029">
-        <v>574.332486748793</v>
+        <v>574.3324867487929</v>
       </c>
     </row>
     <row r="5030" spans="1:2">
@@ -40631,7 +40631,7 @@
         <v>5036</v>
       </c>
       <c r="B5036">
-        <v>768.7528830863429</v>
+        <v>768.7528830863428</v>
       </c>
     </row>
     <row r="5037" spans="1:2">
@@ -40711,7 +40711,7 @@
         <v>5046</v>
       </c>
       <c r="B5046">
-        <v>453.0544156720325</v>
+        <v>453.0544156720324</v>
       </c>
     </row>
     <row r="5047" spans="1:2">
@@ -40743,7 +40743,7 @@
         <v>5050</v>
       </c>
       <c r="B5050">
-        <v>574.189761152965</v>
+        <v>574.1897611529649</v>
       </c>
     </row>
     <row r="5051" spans="1:2">
@@ -40839,7 +40839,7 @@
         <v>5062</v>
       </c>
       <c r="B5062">
-        <v>707.5323946072585</v>
+        <v>707.5323946072584</v>
       </c>
     </row>
     <row r="5063" spans="1:2">
@@ -40847,7 +40847,7 @@
         <v>5063</v>
       </c>
       <c r="B5063">
-        <v>645.3189814491894</v>
+        <v>645.3189814491893</v>
       </c>
     </row>
     <row r="5064" spans="1:2">
@@ -40911,7 +40911,7 @@
         <v>5071</v>
       </c>
       <c r="B5071">
-        <v>318.3076788715125</v>
+        <v>318.3076788715124</v>
       </c>
     </row>
     <row r="5072" spans="1:2">
@@ -40919,7 +40919,7 @@
         <v>5072</v>
       </c>
       <c r="B5072">
-        <v>431.0837591167074</v>
+        <v>431.0837591167073</v>
       </c>
     </row>
     <row r="5073" spans="1:2">
@@ -40927,7 +40927,7 @@
         <v>5073</v>
       </c>
       <c r="B5073">
-        <v>522.4873407964851</v>
+        <v>522.487340796485</v>
       </c>
     </row>
     <row r="5074" spans="1:2">
@@ -40975,7 +40975,7 @@
         <v>5079</v>
       </c>
       <c r="B5079">
-        <v>944.2836786980145</v>
+        <v>944.2836786980142</v>
       </c>
     </row>
     <row r="5080" spans="1:2">
@@ -41039,7 +41039,7 @@
         <v>5087</v>
       </c>
       <c r="B5087">
-        <v>680.9508514006745</v>
+        <v>680.9508514006744</v>
       </c>
     </row>
     <row r="5088" spans="1:2">
@@ -41119,7 +41119,7 @@
         <v>5097</v>
       </c>
       <c r="B5097">
-        <v>670.3208717573889</v>
+        <v>670.3208717573888</v>
       </c>
     </row>
     <row r="5098" spans="1:2">
@@ -41127,7 +41127,7 @@
         <v>5098</v>
       </c>
       <c r="B5098">
-        <v>687.1372879557769</v>
+        <v>687.1372879557767</v>
       </c>
     </row>
     <row r="5099" spans="1:2">
@@ -41143,7 +41143,7 @@
         <v>5100</v>
       </c>
       <c r="B5100">
-        <v>735.2566217935831</v>
+        <v>735.256621793583</v>
       </c>
     </row>
     <row r="5101" spans="1:2">
@@ -41167,7 +41167,7 @@
         <v>5103</v>
       </c>
       <c r="B5103">
-        <v>894.5729691202771</v>
+        <v>894.5729691202769</v>
       </c>
     </row>
     <row r="5104" spans="1:2">
@@ -41215,7 +41215,7 @@
         <v>5109</v>
       </c>
       <c r="B5109">
-        <v>816.7441448802542</v>
+        <v>816.7441448802541</v>
       </c>
     </row>
     <row r="5110" spans="1:2">
@@ -41239,7 +41239,7 @@
         <v>5112</v>
       </c>
       <c r="B5112">
-        <v>663.448648971819</v>
+        <v>663.4486489718189</v>
       </c>
     </row>
     <row r="5113" spans="1:2">
@@ -41319,7 +41319,7 @@
         <v>5122</v>
       </c>
       <c r="B5122">
-        <v>808.2752710760574</v>
+        <v>808.2752710760572</v>
       </c>
     </row>
     <row r="5123" spans="1:2">
@@ -41327,7 +41327,7 @@
         <v>5123</v>
       </c>
       <c r="B5123">
-        <v>847.2654420595627</v>
+        <v>847.2654420595626</v>
       </c>
     </row>
     <row r="5124" spans="1:2">
@@ -41391,7 +41391,7 @@
         <v>5131</v>
       </c>
       <c r="B5131">
-        <v>991.5199894963341</v>
+        <v>991.5199894963339</v>
       </c>
     </row>
     <row r="5132" spans="1:2">
@@ -41447,7 +41447,7 @@
         <v>5138</v>
       </c>
       <c r="B5138">
-        <v>565.9776175786355</v>
+        <v>565.9776175786354</v>
       </c>
     </row>
     <row r="5139" spans="1:2">
@@ -41463,7 +41463,7 @@
         <v>5140</v>
       </c>
       <c r="B5140">
-        <v>502.0520834127068</v>
+        <v>502.0520834127067</v>
       </c>
     </row>
     <row r="5141" spans="1:2">
@@ -41479,7 +41479,7 @@
         <v>5142</v>
       </c>
       <c r="B5142">
-        <v>595.6158917184573</v>
+        <v>595.6158917184572</v>
       </c>
     </row>
     <row r="5143" spans="1:2">
@@ -41487,7 +41487,7 @@
         <v>5143</v>
       </c>
       <c r="B5143">
-        <v>361.6865886589714</v>
+        <v>361.6865886589713</v>
       </c>
     </row>
     <row r="5144" spans="1:2">
@@ -41495,7 +41495,7 @@
         <v>5144</v>
       </c>
       <c r="B5144">
-        <v>539.5660555744749</v>
+        <v>539.5660555744748</v>
       </c>
     </row>
     <row r="5145" spans="1:2">
@@ -41535,7 +41535,7 @@
         <v>5149</v>
       </c>
       <c r="B5149">
-        <v>729.2340119490925</v>
+        <v>729.2340119490924</v>
       </c>
     </row>
     <row r="5150" spans="1:2">
@@ -41591,7 +41591,7 @@
         <v>5156</v>
       </c>
       <c r="B5156">
-        <v>792.8609067266252</v>
+        <v>792.8609067266251</v>
       </c>
     </row>
     <row r="5157" spans="1:2">
@@ -41695,7 +41695,7 @@
         <v>5169</v>
       </c>
       <c r="B5169">
-        <v>499.1102363266242</v>
+        <v>499.1102363266241</v>
       </c>
     </row>
     <row r="5170" spans="1:2">
@@ -41743,7 +41743,7 @@
         <v>5175</v>
       </c>
       <c r="B5175">
-        <v>727.9242774773149</v>
+        <v>727.9242774773148</v>
       </c>
     </row>
     <row r="5176" spans="1:2">
@@ -41759,7 +41759,7 @@
         <v>5177</v>
       </c>
       <c r="B5177">
-        <v>779.4989188609385</v>
+        <v>779.4989188609384</v>
       </c>
     </row>
     <row r="5178" spans="1:2">
@@ -41783,7 +41783,7 @@
         <v>5180</v>
       </c>
       <c r="B5180">
-        <v>773.4478811256977</v>
+        <v>773.4478811256976</v>
       </c>
     </row>
     <row r="5181" spans="1:2">
@@ -41791,7 +41791,7 @@
         <v>5181</v>
       </c>
       <c r="B5181">
-        <v>718.470684983216</v>
+        <v>718.4706849832158</v>
       </c>
     </row>
     <row r="5182" spans="1:2">
@@ -41863,7 +41863,7 @@
         <v>5190</v>
       </c>
       <c r="B5190">
-        <v>432.5640609329859</v>
+        <v>432.5640609329857</v>
       </c>
     </row>
     <row r="5191" spans="1:2">
@@ -41935,7 +41935,7 @@
         <v>5199</v>
       </c>
       <c r="B5199">
-        <v>604.7655695454645</v>
+        <v>604.7655695454644</v>
       </c>
     </row>
     <row r="5200" spans="1:2">
@@ -41959,7 +41959,7 @@
         <v>5202</v>
       </c>
       <c r="B5202">
-        <v>822.3248035984436</v>
+        <v>822.3248035984434</v>
       </c>
     </row>
     <row r="5203" spans="1:2">
@@ -41967,7 +41967,7 @@
         <v>5203</v>
       </c>
       <c r="B5203">
-        <v>776.753429370759</v>
+        <v>776.7534293707589</v>
       </c>
     </row>
     <row r="5204" spans="1:2">
@@ -41975,7 +41975,7 @@
         <v>5204</v>
       </c>
       <c r="B5204">
-        <v>709.4745763804673</v>
+        <v>709.4745763804672</v>
       </c>
     </row>
     <row r="5205" spans="1:2">
@@ -41991,7 +41991,7 @@
         <v>5206</v>
       </c>
       <c r="B5206">
-        <v>618.2526987446596</v>
+        <v>618.2526987446595</v>
       </c>
     </row>
     <row r="5207" spans="1:2">
@@ -41999,7 +41999,7 @@
         <v>5207</v>
       </c>
       <c r="B5207">
-        <v>572.6171419595082</v>
+        <v>572.6171419595081</v>
       </c>
     </row>
     <row r="5208" spans="1:2">
@@ -42079,7 +42079,7 @@
         <v>5217</v>
       </c>
       <c r="B5217">
-        <v>597.0352347586942</v>
+        <v>597.0352347586941</v>
       </c>
     </row>
     <row r="5218" spans="1:2">
@@ -42151,7 +42151,7 @@
         <v>5226</v>
       </c>
       <c r="B5226">
-        <v>895.3862412525623</v>
+        <v>895.3862412525622</v>
       </c>
     </row>
     <row r="5227" spans="1:2">
@@ -42439,7 +42439,7 @@
         <v>5262</v>
       </c>
       <c r="B5262">
-        <v>86.78448903943624</v>
+        <v>86.78448903943622</v>
       </c>
     </row>
     <row r="5263" spans="1:2">
@@ -42575,7 +42575,7 @@
         <v>5279</v>
       </c>
       <c r="B5279">
-        <v>266.2022858368732</v>
+        <v>266.2022858368731</v>
       </c>
     </row>
     <row r="5280" spans="1:2">
@@ -42647,7 +42647,7 @@
         <v>5288</v>
       </c>
       <c r="B5288">
-        <v>89.98629013681143</v>
+        <v>89.98629013681142</v>
       </c>
     </row>
     <row r="5289" spans="1:2">
@@ -42743,7 +42743,7 @@
         <v>5300</v>
       </c>
       <c r="B5300">
-        <v>421.1999383378535</v>
+        <v>421.1999383378534</v>
       </c>
     </row>
     <row r="5301" spans="1:2">
@@ -42767,7 +42767,7 @@
         <v>5303</v>
       </c>
       <c r="B5303">
-        <v>255.9140270246667</v>
+        <v>255.9140270246666</v>
       </c>
     </row>
     <row r="5304" spans="1:2">
@@ -42927,7 +42927,7 @@
         <v>5323</v>
       </c>
       <c r="B5323">
-        <v>479.6016695670932</v>
+        <v>479.601669567093</v>
       </c>
     </row>
     <row r="5324" spans="1:2">
@@ -43039,7 +43039,7 @@
         <v>5337</v>
       </c>
       <c r="B5337">
-        <v>131.3506296045124</v>
+        <v>131.3506296045123</v>
       </c>
     </row>
     <row r="5338" spans="1:2">
@@ -43151,7 +43151,7 @@
         <v>5351</v>
       </c>
       <c r="B5351">
-        <v>372.4191431657886</v>
+        <v>372.4191431657885</v>
       </c>
     </row>
     <row r="5352" spans="1:2">
@@ -43255,7 +43255,7 @@
         <v>5364</v>
       </c>
       <c r="B5364">
-        <v>436.961884939138</v>
+        <v>436.9618849391379</v>
       </c>
     </row>
     <row r="5365" spans="1:2">
@@ -43263,7 +43263,7 @@
         <v>5365</v>
       </c>
       <c r="B5365">
-        <v>416.4389993148</v>
+        <v>416.4389993147998</v>
       </c>
     </row>
     <row r="5366" spans="1:2">
@@ -43319,7 +43319,7 @@
         <v>5372</v>
       </c>
       <c r="B5372">
-        <v>552.4775932537392</v>
+        <v>552.4775932537391</v>
       </c>
     </row>
     <row r="5373" spans="1:2">
@@ -43343,7 +43343,7 @@
         <v>5375</v>
       </c>
       <c r="B5375">
-        <v>423.0917118924125</v>
+        <v>423.0917118924124</v>
       </c>
     </row>
     <row r="5376" spans="1:2">
@@ -43359,7 +43359,7 @@
         <v>5377</v>
       </c>
       <c r="B5377">
-        <v>377.1068144291768</v>
+        <v>377.1068144291767</v>
       </c>
     </row>
     <row r="5378" spans="1:2">
@@ -43511,7 +43511,7 @@
         <v>5396</v>
       </c>
       <c r="B5396">
-        <v>583.4765962260657</v>
+        <v>583.4765962260656</v>
       </c>
     </row>
     <row r="5397" spans="1:2">
@@ -43519,7 +43519,7 @@
         <v>5397</v>
       </c>
       <c r="B5397">
-        <v>546.3339450702814</v>
+        <v>546.3339450702813</v>
       </c>
     </row>
     <row r="5398" spans="1:2">
@@ -43567,7 +43567,7 @@
         <v>5403</v>
       </c>
       <c r="B5403">
-        <v>299.3902363969612</v>
+        <v>299.3902363969611</v>
       </c>
     </row>
     <row r="5404" spans="1:2">
@@ -43583,7 +43583,7 @@
         <v>5405</v>
       </c>
       <c r="B5405">
-        <v>268.4096969000704</v>
+        <v>268.4096969000703</v>
       </c>
     </row>
     <row r="5406" spans="1:2">
@@ -43663,7 +43663,7 @@
         <v>5415</v>
       </c>
       <c r="B5415">
-        <v>746.4953099841684</v>
+        <v>746.4953099841682</v>
       </c>
     </row>
     <row r="5416" spans="1:2">
@@ -43735,7 +43735,7 @@
         <v>5424</v>
       </c>
       <c r="B5424">
-        <v>401.8317526058412</v>
+        <v>401.8317526058411</v>
       </c>
     </row>
     <row r="5425" spans="1:2">
@@ -43839,7 +43839,7 @@
         <v>5437</v>
       </c>
       <c r="B5437">
-        <v>460.1224099114281</v>
+        <v>460.122409911428</v>
       </c>
     </row>
     <row r="5438" spans="1:2">
@@ -43863,7 +43863,7 @@
         <v>5440</v>
       </c>
       <c r="B5440">
-        <v>593.7167913879318</v>
+        <v>593.7167913879317</v>
       </c>
     </row>
     <row r="5441" spans="1:2">
@@ -43959,7 +43959,7 @@
         <v>5452</v>
       </c>
       <c r="B5452">
-        <v>332.907305733466</v>
+        <v>332.9073057334659</v>
       </c>
     </row>
     <row r="5453" spans="1:2">
@@ -43999,7 +43999,7 @@
         <v>5457</v>
       </c>
       <c r="B5457">
-        <v>398.4661247978544</v>
+        <v>398.4661247978543</v>
       </c>
     </row>
     <row r="5458" spans="1:2">
@@ -44303,7 +44303,7 @@
         <v>5495</v>
       </c>
       <c r="B5495">
-        <v>501.0925688321296</v>
+        <v>501.0925688321295</v>
       </c>
     </row>
     <row r="5496" spans="1:2">
@@ -44343,7 +44343,7 @@
         <v>5500</v>
       </c>
       <c r="B5500">
-        <v>368.6068750948818</v>
+        <v>368.6068750948817</v>
       </c>
     </row>
     <row r="5501" spans="1:2">
@@ -44407,7 +44407,7 @@
         <v>5508</v>
       </c>
       <c r="B5508">
-        <v>522.1394654735941</v>
+        <v>522.139465473594</v>
       </c>
     </row>
     <row r="5509" spans="1:2">
@@ -44431,7 +44431,7 @@
         <v>5511</v>
       </c>
       <c r="B5511">
-        <v>640.0530810265225</v>
+        <v>640.0530810265224</v>
       </c>
     </row>
     <row r="5512" spans="1:2">
@@ -44439,7 +44439,7 @@
         <v>5512</v>
       </c>
       <c r="B5512">
-        <v>605.324162945153</v>
+        <v>605.3241629451529</v>
       </c>
     </row>
     <row r="5513" spans="1:2">
@@ -44567,7 +44567,7 @@
         <v>5528</v>
       </c>
       <c r="B5528">
-        <v>263.0242234936296</v>
+        <v>263.0242234936295</v>
       </c>
     </row>
     <row r="5529" spans="1:2">
@@ -44607,7 +44607,7 @@
         <v>5533</v>
       </c>
       <c r="B5533">
-        <v>494.6019245388968</v>
+        <v>494.6019245388967</v>
       </c>
     </row>
     <row r="5534" spans="1:2">
@@ -44743,7 +44743,7 @@
         <v>5550</v>
       </c>
       <c r="B5550">
-        <v>377.8942963100599</v>
+        <v>377.8942963100598</v>
       </c>
     </row>
     <row r="5551" spans="1:2">
@@ -44751,7 +44751,7 @@
         <v>5551</v>
       </c>
       <c r="B5551">
-        <v>212.019019138125</v>
+        <v>212.0190191381249</v>
       </c>
     </row>
     <row r="5552" spans="1:2">
@@ -44775,7 +44775,7 @@
         <v>5554</v>
       </c>
       <c r="B5554">
-        <v>607.731741527756</v>
+        <v>607.7317415277558</v>
       </c>
     </row>
     <row r="5555" spans="1:2">
@@ -44807,7 +44807,7 @@
         <v>5558</v>
       </c>
       <c r="B5558">
-        <v>773.6459971478328</v>
+        <v>773.6459971478326</v>
       </c>
     </row>
     <row r="5559" spans="1:2">
@@ -44823,7 +44823,7 @@
         <v>5560</v>
       </c>
       <c r="B5560">
-        <v>858.3699037144411</v>
+        <v>858.3699037144409</v>
       </c>
     </row>
     <row r="5561" spans="1:2">
@@ -44879,7 +44879,7 @@
         <v>5567</v>
       </c>
       <c r="B5567">
-        <v>497.8016741390014</v>
+        <v>497.8016741390012</v>
       </c>
     </row>
     <row r="5568" spans="1:2">
@@ -44887,7 +44887,7 @@
         <v>5568</v>
       </c>
       <c r="B5568">
-        <v>450.0214234929262</v>
+        <v>450.0214234929261</v>
       </c>
     </row>
     <row r="5569" spans="1:2">
@@ -45031,7 +45031,7 @@
         <v>5586</v>
       </c>
       <c r="B5586">
-        <v>603.761215095972</v>
+        <v>603.7612150959719</v>
       </c>
     </row>
     <row r="5587" spans="1:2">
@@ -45391,7 +45391,7 @@
         <v>5631</v>
       </c>
       <c r="B5631">
-        <v>604.7216088896653</v>
+        <v>604.7216088896652</v>
       </c>
     </row>
     <row r="5632" spans="1:2">
@@ -45399,7 +45399,7 @@
         <v>5632</v>
       </c>
       <c r="B5632">
-        <v>614.2657603347106</v>
+        <v>614.2657603347105</v>
       </c>
     </row>
     <row r="5633" spans="1:2">
@@ -45543,7 +45543,7 @@
         <v>5650</v>
       </c>
       <c r="B5650">
-        <v>344.4833186895505</v>
+        <v>344.4833186895504</v>
       </c>
     </row>
     <row r="5651" spans="1:2">
@@ -45615,7 +45615,7 @@
         <v>5659</v>
       </c>
       <c r="B5659">
-        <v>584.616935637497</v>
+        <v>584.6169356374969</v>
       </c>
     </row>
     <row r="5660" spans="1:2">
@@ -45655,7 +45655,7 @@
         <v>5664</v>
       </c>
       <c r="B5664">
-        <v>324.0269601909886</v>
+        <v>324.0269601909885</v>
       </c>
     </row>
     <row r="5665" spans="1:2">
@@ -45839,7 +45839,7 @@
         <v>5687</v>
       </c>
       <c r="B5687">
-        <v>434.1636426619995</v>
+        <v>434.1636426619994</v>
       </c>
     </row>
     <row r="5688" spans="1:2">
@@ -45879,7 +45879,7 @@
         <v>5692</v>
       </c>
       <c r="B5692">
-        <v>322.7251386372549</v>
+        <v>322.7251386372548</v>
       </c>
     </row>
     <row r="5693" spans="1:2">
@@ -45927,7 +45927,7 @@
         <v>5698</v>
       </c>
       <c r="B5698">
-        <v>443.3141997021227</v>
+        <v>443.3141997021226</v>
       </c>
     </row>
     <row r="5699" spans="1:2">
@@ -45959,7 +45959,7 @@
         <v>5702</v>
       </c>
       <c r="B5702">
-        <v>554.3459211252053</v>
+        <v>554.3459211252052</v>
       </c>
     </row>
     <row r="5703" spans="1:2">
@@ -45991,7 +45991,7 @@
         <v>5706</v>
       </c>
       <c r="B5706">
-        <v>641.3595917168747</v>
+        <v>641.3595917168745</v>
       </c>
     </row>
     <row r="5707" spans="1:2">
@@ -46007,7 +46007,7 @@
         <v>5708</v>
       </c>
       <c r="B5708">
-        <v>514.1283686317862</v>
+        <v>514.1283686317861</v>
       </c>
     </row>
     <row r="5709" spans="1:2">
@@ -46047,7 +46047,7 @@
         <v>5713</v>
       </c>
       <c r="B5713">
-        <v>337.8546379371082</v>
+        <v>337.8546379371081</v>
       </c>
     </row>
     <row r="5714" spans="1:2">
@@ -46119,7 +46119,7 @@
         <v>5722</v>
       </c>
       <c r="B5722">
-        <v>282.2511489850071</v>
+        <v>282.251148985007</v>
       </c>
     </row>
     <row r="5723" spans="1:2">
@@ -46143,7 +46143,7 @@
         <v>5725</v>
       </c>
       <c r="B5725">
-        <v>515.7610673881685</v>
+        <v>515.7610673881684</v>
       </c>
     </row>
     <row r="5726" spans="1:2">
@@ -46215,7 +46215,7 @@
         <v>5734</v>
       </c>
       <c r="B5734">
-        <v>490.4872071560915</v>
+        <v>490.4872071560914</v>
       </c>
     </row>
     <row r="5735" spans="1:2">
@@ -46223,7 +46223,7 @@
         <v>5735</v>
       </c>
       <c r="B5735">
-        <v>437.8616130278283</v>
+        <v>437.8616130278282</v>
       </c>
     </row>
     <row r="5736" spans="1:2">
@@ -46295,7 +46295,7 @@
         <v>5744</v>
       </c>
       <c r="B5744">
-        <v>237.7275037205369</v>
+        <v>237.7275037205368</v>
       </c>
     </row>
     <row r="5745" spans="1:2">
@@ -46319,7 +46319,7 @@
         <v>5747</v>
       </c>
       <c r="B5747">
-        <v>484.2811348413989</v>
+        <v>484.2811348413988</v>
       </c>
     </row>
     <row r="5748" spans="1:2">
@@ -46407,7 +46407,7 @@
         <v>5758</v>
       </c>
       <c r="B5758">
-        <v>557.3311427250097</v>
+        <v>557.3311427250096</v>
       </c>
     </row>
     <row r="5759" spans="1:2">
@@ -46423,7 +46423,7 @@
         <v>5760</v>
       </c>
       <c r="B5760">
-        <v>452.695696720711</v>
+        <v>452.6956967207109</v>
       </c>
     </row>
     <row r="5761" spans="1:2">
@@ -46551,7 +46551,7 @@
         <v>5776</v>
       </c>
       <c r="B5776">
-        <v>760.4539904845697</v>
+        <v>760.4539904845694</v>
       </c>
     </row>
     <row r="5777" spans="1:2">
@@ -46599,7 +46599,7 @@
         <v>5782</v>
       </c>
       <c r="B5782">
-        <v>466.6672723468133</v>
+        <v>466.6672723468132</v>
       </c>
     </row>
     <row r="5783" spans="1:2">
@@ -46615,7 +46615,7 @@
         <v>5784</v>
       </c>
       <c r="B5784">
-        <v>336.1891152243958</v>
+        <v>336.1891152243957</v>
       </c>
     </row>
     <row r="5785" spans="1:2">
@@ -46695,7 +46695,7 @@
         <v>5794</v>
       </c>
       <c r="B5794">
-        <v>375.1851476286744</v>
+        <v>375.1851476286743</v>
       </c>
     </row>
     <row r="5795" spans="1:2">
@@ -46767,7 +46767,7 @@
         <v>5803</v>
       </c>
       <c r="B5803">
-        <v>551.9488930999942</v>
+        <v>551.9488930999941</v>
       </c>
     </row>
     <row r="5804" spans="1:2">
@@ -46783,7 +46783,7 @@
         <v>5805</v>
       </c>
       <c r="B5805">
-        <v>413.6888206880019</v>
+        <v>413.6888206880018</v>
       </c>
     </row>
     <row r="5806" spans="1:2">
@@ -46823,7 +46823,7 @@
         <v>5810</v>
       </c>
       <c r="B5810">
-        <v>138.753604041098</v>
+        <v>138.7536040410979</v>
       </c>
     </row>
     <row r="5811" spans="1:2">
@@ -46983,7 +46983,7 @@
         <v>5830</v>
       </c>
       <c r="B5830">
-        <v>344.0736053775019</v>
+        <v>344.0736053775018</v>
       </c>
     </row>
     <row r="5831" spans="1:2">
@@ -46999,7 +46999,7 @@
         <v>5832</v>
       </c>
       <c r="B5832">
-        <v>237.7198838735317</v>
+        <v>237.7198838735316</v>
       </c>
     </row>
     <row r="5833" spans="1:2">
@@ -47015,7 +47015,7 @@
         <v>5834</v>
       </c>
       <c r="B5834">
-        <v>356.2817725639789</v>
+        <v>356.2817725639788</v>
       </c>
     </row>
     <row r="5835" spans="1:2">
@@ -47023,7 +47023,7 @@
         <v>5835</v>
       </c>
       <c r="B5835">
-        <v>340.2786284978762</v>
+        <v>340.2786284978761</v>
       </c>
     </row>
     <row r="5836" spans="1:2">
@@ -47087,7 +47087,7 @@
         <v>5843</v>
       </c>
       <c r="B5843">
-        <v>407.1917288319186</v>
+        <v>407.1917288319185</v>
       </c>
     </row>
     <row r="5844" spans="1:2">
@@ -47167,7 +47167,7 @@
         <v>5853</v>
       </c>
       <c r="B5853">
-        <v>591.5155348165464</v>
+        <v>591.5155348165463</v>
       </c>
     </row>
     <row r="5854" spans="1:2">
@@ -47207,7 +47207,7 @@
         <v>5858</v>
       </c>
       <c r="B5858">
-        <v>411.4521025209385</v>
+        <v>411.4521025209384</v>
       </c>
     </row>
     <row r="5859" spans="1:2">
@@ -47287,7 +47287,7 @@
         <v>5868</v>
       </c>
       <c r="B5868">
-        <v>587.9658583962802</v>
+        <v>587.9658583962801</v>
       </c>
     </row>
     <row r="5869" spans="1:2">
@@ -47327,7 +47327,7 @@
         <v>5873</v>
       </c>
       <c r="B5873">
-        <v>557.3208852386566</v>
+        <v>557.3208852386565</v>
       </c>
     </row>
     <row r="5874" spans="1:2">
@@ -47375,7 +47375,7 @@
         <v>5879</v>
       </c>
       <c r="B5879">
-        <v>424.1605419704104</v>
+        <v>424.1605419704103</v>
       </c>
     </row>
     <row r="5880" spans="1:2">
@@ -47495,7 +47495,7 @@
         <v>5894</v>
       </c>
       <c r="B5894">
-        <v>356.828643122121</v>
+        <v>356.8286431221209</v>
       </c>
     </row>
     <row r="5895" spans="1:2">
@@ -47503,7 +47503,7 @@
         <v>5895</v>
       </c>
       <c r="B5895">
-        <v>384.752451685774</v>
+        <v>384.7524516857739</v>
       </c>
     </row>
     <row r="5896" spans="1:2">
@@ -47551,7 +47551,7 @@
         <v>5901</v>
       </c>
       <c r="B5901">
-        <v>351.1430649720909</v>
+        <v>351.1430649720908</v>
       </c>
     </row>
     <row r="5902" spans="1:2">
@@ -47567,7 +47567,7 @@
         <v>5903</v>
       </c>
       <c r="B5903">
-        <v>264.3084607850436</v>
+        <v>264.3084607850435</v>
       </c>
     </row>
     <row r="5904" spans="1:2">
@@ -47607,7 +47607,7 @@
         <v>5908</v>
       </c>
       <c r="B5908">
-        <v>203.6928709297562</v>
+        <v>203.6928709297561</v>
       </c>
     </row>
     <row r="5909" spans="1:2">
@@ -47623,7 +47623,7 @@
         <v>5910</v>
       </c>
       <c r="B5910">
-        <v>192.5081078102846</v>
+        <v>192.5081078102845</v>
       </c>
     </row>
     <row r="5911" spans="1:2">
@@ -47679,7 +47679,7 @@
         <v>5917</v>
       </c>
       <c r="B5917">
-        <v>507.6104687319579</v>
+        <v>507.6104687319578</v>
       </c>
     </row>
     <row r="5918" spans="1:2">
@@ -47719,7 +47719,7 @@
         <v>5922</v>
       </c>
       <c r="B5922">
-        <v>646.7858019976895</v>
+        <v>646.7858019976894</v>
       </c>
     </row>
     <row r="5923" spans="1:2">
@@ -47743,7 +47743,7 @@
         <v>5925</v>
       </c>
       <c r="B5925">
-        <v>451.9129039764465</v>
+        <v>451.9129039764464</v>
       </c>
     </row>
     <row r="5926" spans="1:2">
@@ -47911,7 +47911,7 @@
         <v>5946</v>
       </c>
       <c r="B5946">
-        <v>707.0086766611707</v>
+        <v>707.0086766611706</v>
       </c>
     </row>
     <row r="5947" spans="1:2">
@@ -47943,7 +47943,7 @@
         <v>5950</v>
       </c>
       <c r="B5950">
-        <v>479.0691594898454</v>
+        <v>479.0691594898453</v>
       </c>
     </row>
     <row r="5951" spans="1:2">
@@ -47951,7 +47951,7 @@
         <v>5951</v>
       </c>
       <c r="B5951">
-        <v>424.8562926161925</v>
+        <v>424.8562926161924</v>
       </c>
     </row>
     <row r="5952" spans="1:2">
@@ -48015,7 +48015,7 @@
         <v>5959</v>
       </c>
       <c r="B5959">
-        <v>140.4009563494134</v>
+        <v>140.4009563494133</v>
       </c>
     </row>
     <row r="5960" spans="1:2">
@@ -48055,7 +48055,7 @@
         <v>5964</v>
       </c>
       <c r="B5964">
-        <v>525.191800341252</v>
+        <v>525.1918003412519</v>
       </c>
     </row>
     <row r="5965" spans="1:2">
@@ -48079,7 +48079,7 @@
         <v>5967</v>
       </c>
       <c r="B5967">
-        <v>694.3562137800832</v>
+        <v>694.3562137800831</v>
       </c>
     </row>
     <row r="5968" spans="1:2">
@@ -48087,7 +48087,7 @@
         <v>5968</v>
       </c>
       <c r="B5968">
-        <v>713.0125299591871</v>
+        <v>713.0125299591868</v>
       </c>
     </row>
     <row r="5969" spans="1:2">
@@ -48095,7 +48095,7 @@
         <v>5969</v>
       </c>
       <c r="B5969">
-        <v>663.1781444031345</v>
+        <v>663.1781444031344</v>
       </c>
     </row>
     <row r="5970" spans="1:2">
@@ -48127,7 +48127,7 @@
         <v>5973</v>
       </c>
       <c r="B5973">
-        <v>565.4415906489238</v>
+        <v>565.4415906489237</v>
       </c>
     </row>
     <row r="5974" spans="1:2">
@@ -48143,7 +48143,7 @@
         <v>5975</v>
       </c>
       <c r="B5975">
-        <v>491.2594493429641</v>
+        <v>491.259449342964</v>
       </c>
     </row>
     <row r="5976" spans="1:2">
@@ -48223,7 +48223,7 @@
         <v>5985</v>
       </c>
       <c r="B5985">
-        <v>475.1481620635953</v>
+        <v>475.1481620635952</v>
       </c>
     </row>
     <row r="5986" spans="1:2">
@@ -48247,7 +48247,7 @@
         <v>5988</v>
       </c>
       <c r="B5988">
-        <v>696.0278909846074</v>
+        <v>696.0278909846073</v>
       </c>
     </row>
     <row r="5989" spans="1:2">
@@ -48255,7 +48255,7 @@
         <v>5989</v>
       </c>
       <c r="B5989">
-        <v>729.538219687223</v>
+        <v>729.5382196872229</v>
       </c>
     </row>
     <row r="5990" spans="1:2">
@@ -48367,7 +48367,7 @@
         <v>6003</v>
       </c>
       <c r="B6003">
-        <v>319.2270427197931</v>
+        <v>319.227042719793</v>
       </c>
     </row>
     <row r="6004" spans="1:2">
@@ -48375,7 +48375,7 @@
         <v>6004</v>
       </c>
       <c r="B6004">
-        <v>296.3440560211153</v>
+        <v>296.3440560211152</v>
       </c>
     </row>
     <row r="6005" spans="1:2">
@@ -48439,7 +48439,7 @@
         <v>6012</v>
       </c>
       <c r="B6012">
-        <v>428.4930111349411</v>
+        <v>428.493011134941</v>
       </c>
     </row>
     <row r="6013" spans="1:2">
@@ -48447,7 +48447,7 @@
         <v>6013</v>
       </c>
       <c r="B6013">
-        <v>496.7940959080836</v>
+        <v>496.7940959080835</v>
       </c>
     </row>
     <row r="6014" spans="1:2">
@@ -48471,7 +48471,7 @@
         <v>6016</v>
       </c>
       <c r="B6016">
-        <v>581.4256850975136</v>
+        <v>581.4256850975135</v>
       </c>
     </row>
     <row r="6017" spans="1:2">
@@ -48495,7 +48495,7 @@
         <v>6019</v>
       </c>
       <c r="B6019">
-        <v>632.1820721411947</v>
+        <v>632.1820721411946</v>
       </c>
     </row>
     <row r="6020" spans="1:2">
@@ -48527,7 +48527,7 @@
         <v>6023</v>
       </c>
       <c r="B6023">
-        <v>431.7689592050976</v>
+        <v>431.7689592050975</v>
       </c>
     </row>
     <row r="6024" spans="1:2">
@@ -48599,7 +48599,7 @@
         <v>6032</v>
       </c>
       <c r="B6032">
-        <v>184.0500776345182</v>
+        <v>184.0500776345181</v>
       </c>
     </row>
     <row r="6033" spans="1:2">
@@ -48631,7 +48631,7 @@
         <v>6036</v>
       </c>
       <c r="B6036">
-        <v>412.1800909809733</v>
+        <v>412.1800909809732</v>
       </c>
     </row>
     <row r="6037" spans="1:2">
@@ -48655,7 +48655,7 @@
         <v>6039</v>
       </c>
       <c r="B6039">
-        <v>504.8057788919688</v>
+        <v>504.8057788919687</v>
       </c>
     </row>
     <row r="6040" spans="1:2">
@@ -48687,7 +48687,7 @@
         <v>6043</v>
       </c>
       <c r="B6043">
-        <v>561.4652027963667</v>
+        <v>561.4652027963666</v>
       </c>
     </row>
     <row r="6044" spans="1:2">
@@ -49023,7 +49023,7 @@
         <v>6085</v>
       </c>
       <c r="B6085">
-        <v>470.098841138499</v>
+        <v>470.0988411384989</v>
       </c>
     </row>
     <row r="6086" spans="1:2">
@@ -49047,7 +49047,7 @@
         <v>6088</v>
       </c>
       <c r="B6088">
-        <v>657.0054821868492</v>
+        <v>657.0054821868491</v>
       </c>
     </row>
     <row r="6089" spans="1:2">
@@ -49095,7 +49095,7 @@
         <v>6094</v>
       </c>
       <c r="B6094">
-        <v>431.436323576217</v>
+        <v>431.4363235762169</v>
       </c>
     </row>
     <row r="6095" spans="1:2">
@@ -49159,7 +49159,7 @@
         <v>6102</v>
       </c>
       <c r="B6102">
-        <v>153.7556174391336</v>
+        <v>153.7556174391335</v>
       </c>
     </row>
     <row r="6103" spans="1:2">
@@ -49447,7 +49447,7 @@
         <v>6138</v>
       </c>
       <c r="B6138">
-        <v>592.0843857025881</v>
+        <v>592.084385702588</v>
       </c>
     </row>
     <row r="6139" spans="1:2">
@@ -49583,7 +49583,7 @@
         <v>6155</v>
       </c>
       <c r="B6155">
-        <v>444.5295652994513</v>
+        <v>444.5295652994512</v>
       </c>
     </row>
     <row r="6156" spans="1:2">
@@ -49591,7 +49591,7 @@
         <v>6156</v>
       </c>
       <c r="B6156">
-        <v>527.0226151197694</v>
+        <v>527.0226151197693</v>
       </c>
     </row>
     <row r="6157" spans="1:2">
@@ -49631,7 +49631,7 @@
         <v>6161</v>
       </c>
       <c r="B6161">
-        <v>661.9724501500817</v>
+        <v>661.9724501500816</v>
       </c>
     </row>
     <row r="6162" spans="1:2">
@@ -49823,7 +49823,7 @@
         <v>6185</v>
       </c>
       <c r="B6185">
-        <v>518.2489474353647</v>
+        <v>518.2489474353646</v>
       </c>
     </row>
     <row r="6186" spans="1:2">
@@ -49959,7 +49959,7 @@
         <v>6202</v>
       </c>
       <c r="B6202">
-        <v>280.1794298127101</v>
+        <v>280.17942981271</v>
       </c>
     </row>
     <row r="6203" spans="1:2">
@@ -50015,7 +50015,7 @@
         <v>6209</v>
       </c>
       <c r="B6209">
-        <v>483.5988654633952</v>
+        <v>483.5988654633951</v>
       </c>
     </row>
     <row r="6210" spans="1:2">
@@ -50055,7 +50055,7 @@
         <v>6214</v>
       </c>
       <c r="B6214">
-        <v>452.9418763931865</v>
+        <v>452.9418763931864</v>
       </c>
     </row>
     <row r="6215" spans="1:2">
@@ -50063,7 +50063,7 @@
         <v>6215</v>
       </c>
       <c r="B6215">
-        <v>411.996042368694</v>
+        <v>411.9960423686939</v>
       </c>
     </row>
     <row r="6216" spans="1:2">
@@ -50303,7 +50303,7 @@
         <v>6245</v>
       </c>
       <c r="B6245">
-        <v>384.1525352696342</v>
+        <v>384.1525352696341</v>
       </c>
     </row>
     <row r="6246" spans="1:2">
@@ -50335,7 +50335,7 @@
         <v>6249</v>
       </c>
       <c r="B6249">
-        <v>324.1890284753683</v>
+        <v>324.1890284753682</v>
       </c>
     </row>
     <row r="6250" spans="1:2">
@@ -50343,7 +50343,7 @@
         <v>6250</v>
       </c>
       <c r="B6250">
-        <v>496.1376167814822</v>
+        <v>496.1376167814821</v>
       </c>
     </row>
     <row r="6251" spans="1:2">
@@ -50359,7 +50359,7 @@
         <v>6252</v>
       </c>
       <c r="B6252">
-        <v>464.2406441466974</v>
+        <v>464.2406441466973</v>
       </c>
     </row>
     <row r="6253" spans="1:2">
@@ -50383,7 +50383,7 @@
         <v>6255</v>
       </c>
       <c r="B6255">
-        <v>660.4953721152286</v>
+        <v>660.4953721152285</v>
       </c>
     </row>
     <row r="6256" spans="1:2">
@@ -50391,7 +50391,7 @@
         <v>6256</v>
       </c>
       <c r="B6256">
-        <v>681.1152642533635</v>
+        <v>681.1152642533634</v>
       </c>
     </row>
     <row r="6257" spans="1:2">
@@ -50463,7 +50463,7 @@
         <v>6265</v>
       </c>
       <c r="B6265">
-        <v>350.5214612990902</v>
+        <v>350.5214612990901</v>
       </c>
     </row>
     <row r="6266" spans="1:2">
@@ -50479,7 +50479,7 @@
         <v>6267</v>
       </c>
       <c r="B6267">
-        <v>278.1891843891609</v>
+        <v>278.1891843891608</v>
       </c>
     </row>
     <row r="6268" spans="1:2">
@@ -50559,7 +50559,7 @@
         <v>6277</v>
       </c>
       <c r="B6277">
-        <v>521.593474128568</v>
+        <v>521.5934741285679</v>
       </c>
     </row>
     <row r="6278" spans="1:2">
@@ -50663,7 +50663,7 @@
         <v>6290</v>
       </c>
       <c r="B6290">
-        <v>67.90133587640844</v>
+        <v>67.90133587640842</v>
       </c>
     </row>
     <row r="6291" spans="1:2">
@@ -50671,7 +50671,7 @@
         <v>6291</v>
       </c>
       <c r="B6291">
-        <v>38.99779083051058</v>
+        <v>38.99779083051057</v>
       </c>
     </row>
     <row r="6292" spans="1:2">
@@ -50735,7 +50735,7 @@
         <v>6299</v>
       </c>
       <c r="B6299">
-        <v>64.40133499719532</v>
+        <v>64.40133499719531</v>
       </c>
     </row>
     <row r="6300" spans="1:2">
@@ -50743,7 +50743,7 @@
         <v>6300</v>
       </c>
       <c r="B6300">
-        <v>87.02949642775712</v>
+        <v>87.02949642775711</v>
       </c>
     </row>
     <row r="6301" spans="1:2">
@@ -50815,7 +50815,7 @@
         <v>6309</v>
       </c>
       <c r="B6309">
-        <v>236.3483114125966</v>
+        <v>236.3483114125965</v>
       </c>
     </row>
     <row r="6310" spans="1:2">
@@ -50983,7 +50983,7 @@
         <v>6330</v>
       </c>
       <c r="B6330">
-        <v>411.6716127288959</v>
+        <v>411.6716127288958</v>
       </c>
     </row>
     <row r="6331" spans="1:2">
@@ -51071,7 +51071,7 @@
         <v>6341</v>
       </c>
       <c r="B6341">
-        <v>24.70061328045551</v>
+        <v>24.7006132804555</v>
       </c>
     </row>
     <row r="6342" spans="1:2">
@@ -51295,7 +51295,7 @@
         <v>6369</v>
       </c>
       <c r="B6369">
-        <v>41.99842796694863</v>
+        <v>41.99842796694862</v>
       </c>
     </row>
     <row r="6370" spans="1:2">
@@ -51543,7 +51543,7 @@
         <v>6400</v>
       </c>
       <c r="B6400">
-        <v>315.5490011845932</v>
+        <v>315.5490011845931</v>
       </c>
     </row>
     <row r="6401" spans="1:2">
@@ -51567,7 +51567,7 @@
         <v>6403</v>
       </c>
       <c r="B6403">
-        <v>377.3447881125698</v>
+        <v>377.3447881125697</v>
       </c>
     </row>
     <row r="6404" spans="1:2">
@@ -51695,7 +51695,7 @@
         <v>6419</v>
       </c>
       <c r="B6419">
-        <v>99.33906619361095</v>
+        <v>99.33906619361093</v>
       </c>
     </row>
     <row r="6420" spans="1:2">
@@ -51719,7 +51719,7 @@
         <v>6422</v>
       </c>
       <c r="B6422">
-        <v>227.4723619356991</v>
+        <v>227.472361935699</v>
       </c>
     </row>
     <row r="6423" spans="1:2">
@@ -51783,7 +51783,7 @@
         <v>6430</v>
       </c>
       <c r="B6430">
-        <v>291.6730898069307</v>
+        <v>291.6730898069306</v>
       </c>
     </row>
     <row r="6431" spans="1:2">
@@ -51831,7 +51831,7 @@
         <v>6436</v>
       </c>
       <c r="B6436">
-        <v>79.20244819822857</v>
+        <v>79.20244819822855</v>
       </c>
     </row>
     <row r="6437" spans="1:2">
@@ -51839,7 +51839,7 @@
         <v>6437</v>
       </c>
       <c r="B6437">
-        <v>69.45344009715892</v>
+        <v>69.4534400971589</v>
       </c>
     </row>
     <row r="6438" spans="1:2">
@@ -51863,7 +51863,7 @@
         <v>6440</v>
       </c>
       <c r="B6440">
-        <v>58.58747965354315</v>
+        <v>58.58747965354314</v>
       </c>
     </row>
     <row r="6441" spans="1:2">
@@ -51927,7 +51927,7 @@
         <v>6448</v>
       </c>
       <c r="B6448">
-        <v>537.618012380493</v>
+        <v>537.6180123804929</v>
       </c>
     </row>
     <row r="6449" spans="1:2">
@@ -52031,7 +52031,7 @@
         <v>6461</v>
       </c>
       <c r="B6461">
-        <v>121.7217806292939</v>
+        <v>121.7217806292938</v>
       </c>
     </row>
     <row r="6462" spans="1:2">
@@ -52119,7 +52119,7 @@
         <v>6472</v>
       </c>
       <c r="B6472">
-        <v>546.9769429291044</v>
+        <v>546.9769429291043</v>
       </c>
     </row>
     <row r="6473" spans="1:2">
@@ -52207,7 +52207,7 @@
         <v>6483</v>
       </c>
       <c r="B6483">
-        <v>197.2810627459233</v>
+        <v>197.2810627459232</v>
       </c>
     </row>
     <row r="6484" spans="1:2">
@@ -52487,7 +52487,7 @@
         <v>6518</v>
       </c>
       <c r="B6518">
-        <v>437.2795739450469</v>
+        <v>437.2795739450468</v>
       </c>
     </row>
     <row r="6519" spans="1:2">
@@ -52687,7 +52687,7 @@
         <v>6543</v>
       </c>
       <c r="B6543">
-        <v>435.3312376800263</v>
+        <v>435.3312376800262</v>
       </c>
     </row>
     <row r="6544" spans="1:2">
@@ -52735,7 +52735,7 @@
         <v>6549</v>
       </c>
       <c r="B6549">
-        <v>408.4179380576776</v>
+        <v>408.4179380576775</v>
       </c>
     </row>
     <row r="6550" spans="1:2">
@@ -52839,7 +52839,7 @@
         <v>6562</v>
       </c>
       <c r="B6562">
-        <v>47.95647426162218</v>
+        <v>47.95647426162217</v>
       </c>
     </row>
     <row r="6563" spans="1:2">
@@ -52959,7 +52959,7 @@
         <v>6577</v>
       </c>
       <c r="B6577">
-        <v>39.67534176479174</v>
+        <v>39.67534176479173</v>
       </c>
     </row>
     <row r="6578" spans="1:2">
@@ -52967,7 +52967,7 @@
         <v>6578</v>
       </c>
       <c r="B6578">
-        <v>25.94604796635076</v>
+        <v>25.94604796635075</v>
       </c>
     </row>
     <row r="6579" spans="1:2">
@@ -52983,7 +52983,7 @@
         <v>6580</v>
       </c>
       <c r="B6580">
-        <v>16.63152061080694</v>
+        <v>16.63152061080693</v>
       </c>
     </row>
     <row r="6581" spans="1:2">
@@ -53031,7 +53031,7 @@
         <v>6586</v>
       </c>
       <c r="B6586">
-        <v>51.91642082891041</v>
+        <v>51.9164208289104</v>
       </c>
     </row>
     <row r="6587" spans="1:2">
@@ -53055,7 +53055,7 @@
         <v>6589</v>
       </c>
       <c r="B6589">
-        <v>153.843538750732</v>
+        <v>153.8435387507319</v>
       </c>
     </row>
     <row r="6590" spans="1:2">
@@ -53135,7 +53135,7 @@
         <v>6599</v>
       </c>
       <c r="B6599">
-        <v>56.36808198486465</v>
+        <v>56.36808198486464</v>
       </c>
     </row>
     <row r="6600" spans="1:2">
@@ -53191,7 +53191,7 @@
         <v>6606</v>
       </c>
       <c r="B6606">
-        <v>7.731946677482942</v>
+        <v>7.731946677482941</v>
       </c>
     </row>
     <row r="6607" spans="1:2">
@@ -53199,7 +53199,7 @@
         <v>6607</v>
       </c>
       <c r="B6607">
-        <v>9.777553220235268</v>
+        <v>9.777553220235266</v>
       </c>
     </row>
     <row r="6608" spans="1:2">
@@ -53415,7 +53415,7 @@
         <v>6634</v>
       </c>
       <c r="B6634">
-        <v>48.48707937711855</v>
+        <v>48.48707937711854</v>
       </c>
     </row>
     <row r="6635" spans="1:2">
@@ -53463,7 +53463,7 @@
         <v>6640</v>
       </c>
       <c r="B6640">
-        <v>299.202670932218</v>
+        <v>299.2026709322179</v>
       </c>
     </row>
     <row r="6641" spans="1:2">
@@ -53631,7 +53631,7 @@
         <v>6661</v>
       </c>
       <c r="B6661">
-        <v>283.3533891614125</v>
+        <v>283.3533891614123</v>
       </c>
     </row>
     <row r="6662" spans="1:2">
@@ -53775,7 +53775,7 @@
         <v>6679</v>
       </c>
       <c r="B6679">
-        <v>27.72032934151041</v>
+        <v>27.7203293415104</v>
       </c>
     </row>
     <row r="6680" spans="1:2">
@@ -53791,7 +53791,7 @@
         <v>6681</v>
       </c>
       <c r="B6681">
-        <v>31.40780776415519</v>
+        <v>31.40780776415518</v>
       </c>
     </row>
     <row r="6682" spans="1:2">
@@ -53951,7 +53951,7 @@
         <v>6701</v>
       </c>
       <c r="B6701">
-        <v>29.30417315574792</v>
+        <v>29.30417315574791</v>
       </c>
     </row>
     <row r="6702" spans="1:2">
@@ -54039,7 +54039,7 @@
         <v>6712</v>
       </c>
       <c r="B6712">
-        <v>408.7344547794319</v>
+        <v>408.7344547794318</v>
       </c>
     </row>
     <row r="6713" spans="1:2">
@@ -54127,7 +54127,7 @@
         <v>6723</v>
       </c>
       <c r="B6723">
-        <v>107.1678728493715</v>
+        <v>107.1678728493714</v>
       </c>
     </row>
     <row r="6724" spans="1:2">
@@ -54143,7 +54143,7 @@
         <v>6725</v>
       </c>
       <c r="B6725">
-        <v>80.61036146795767</v>
+        <v>80.61036146795766</v>
       </c>
     </row>
     <row r="6726" spans="1:2">
@@ -54239,7 +54239,7 @@
         <v>6737</v>
       </c>
       <c r="B6737">
-        <v>300.9751645740418</v>
+        <v>300.9751645740417</v>
       </c>
     </row>
     <row r="6738" spans="1:2">
@@ -54279,7 +54279,7 @@
         <v>6742</v>
       </c>
       <c r="B6742">
-        <v>248.6104036701873</v>
+        <v>248.6104036701872</v>
       </c>
     </row>
     <row r="6743" spans="1:2">
@@ -54447,7 +54447,7 @@
         <v>6763</v>
       </c>
       <c r="B6763">
-        <v>324.4859094375323</v>
+        <v>324.4859094375322</v>
       </c>
     </row>
     <row r="6764" spans="1:2">
@@ -54471,7 +54471,7 @@
         <v>6766</v>
       </c>
       <c r="B6766">
-        <v>175.5524828685325</v>
+        <v>175.5524828685324</v>
       </c>
     </row>
     <row r="6767" spans="1:2">
@@ -54663,7 +54663,7 @@
         <v>6790</v>
       </c>
       <c r="B6790">
-        <v>104.5908992064223</v>
+        <v>104.5908992064222</v>
       </c>
     </row>
     <row r="6791" spans="1:2">
@@ -54703,7 +54703,7 @@
         <v>6795</v>
       </c>
       <c r="B6795">
-        <v>14.14604081541742</v>
+        <v>14.14604081541741</v>
       </c>
     </row>
     <row r="6796" spans="1:2">
@@ -54895,7 +54895,7 @@
         <v>6819</v>
       </c>
       <c r="B6819">
-        <v>9.30890332231191</v>
+        <v>9.308903322311908</v>
       </c>
     </row>
     <row r="6820" spans="1:2">
@@ -54919,7 +54919,7 @@
         <v>6822</v>
       </c>
       <c r="B6822">
-        <v>6.400437027532853</v>
+        <v>6.400437027532852</v>
       </c>
     </row>
     <row r="6823" spans="1:2">
@@ -54967,7 +54967,7 @@
         <v>6828</v>
       </c>
       <c r="B6828">
-        <v>64.95943017611812</v>
+        <v>64.9594301761181</v>
       </c>
     </row>
     <row r="6829" spans="1:2">
@@ -54975,7 +54975,7 @@
         <v>6829</v>
       </c>
       <c r="B6829">
-        <v>87.70649052706483</v>
+        <v>87.70649052706482</v>
       </c>
     </row>
     <row r="6830" spans="1:2">
@@ -55039,7 +55039,7 @@
         <v>6837</v>
       </c>
       <c r="B6837">
-        <v>64.56226030452427</v>
+        <v>64.56226030452426</v>
       </c>
     </row>
     <row r="6838" spans="1:2">
@@ -55207,7 +55207,7 @@
         <v>6858</v>
       </c>
       <c r="B6858">
-        <v>231.0281928477772</v>
+        <v>231.0281928477771</v>
       </c>
     </row>
     <row r="6859" spans="1:2">
@@ -55215,7 +55215,7 @@
         <v>6859</v>
       </c>
       <c r="B6859">
-        <v>167.2248399978665</v>
+        <v>167.2248399978664</v>
       </c>
     </row>
     <row r="6860" spans="1:2">
@@ -55231,7 +55231,7 @@
         <v>6861</v>
       </c>
       <c r="B6861">
-        <v>82.33901168239775</v>
+        <v>82.33901168239774</v>
       </c>
     </row>
     <row r="6862" spans="1:2">
@@ -55263,7 +55263,7 @@
         <v>6865</v>
       </c>
       <c r="B6865">
-        <v>5.887797166706427</v>
+        <v>5.887797166706426</v>
       </c>
     </row>
     <row r="6866" spans="1:2">
@@ -55271,7 +55271,7 @@
         <v>6866</v>
       </c>
       <c r="B6866">
-        <v>2.752262361882947</v>
+        <v>2.752262361882946</v>
       </c>
     </row>
     <row r="6867" spans="1:2">
@@ -55407,7 +55407,7 @@
         <v>6883</v>
       </c>
       <c r="B6883">
-        <v>85.14929917922527</v>
+        <v>85.14929917922524</v>
       </c>
     </row>
     <row r="6884" spans="1:2">
@@ -55455,7 +55455,7 @@
         <v>6889</v>
       </c>
       <c r="B6889">
-        <v>0.6609455292306123</v>
+        <v>0.6609455292306122</v>
       </c>
     </row>
     <row r="6890" spans="1:2">
@@ -55511,7 +55511,7 @@
         <v>6896</v>
       </c>
       <c r="B6896">
-        <v>6.713231747096106</v>
+        <v>6.713231747096105</v>
       </c>
     </row>
     <row r="6897" spans="1:2">
@@ -55735,7 +55735,7 @@
         <v>6924</v>
       </c>
       <c r="B6924">
-        <v>86.55677284239637</v>
+        <v>86.55677284239636</v>
       </c>
     </row>
     <row r="6925" spans="1:2">
@@ -55783,7 +55783,7 @@
         <v>6930</v>
       </c>
       <c r="B6930">
-        <v>302.1852548926745</v>
+        <v>302.1852548926744</v>
       </c>
     </row>
     <row r="6931" spans="1:2">
@@ -55927,7 +55927,7 @@
         <v>6948</v>
       </c>
       <c r="B6948">
-        <v>92.61630963775835</v>
+        <v>92.61630963775833</v>
       </c>
     </row>
     <row r="6949" spans="1:2">
@@ -56047,7 +56047,7 @@
         <v>6963</v>
       </c>
       <c r="B6963">
-        <v>20.02935106452194</v>
+        <v>20.02935106452193</v>
       </c>
     </row>
     <row r="6964" spans="1:2">
@@ -56079,7 +56079,7 @@
         <v>6967</v>
       </c>
       <c r="B6967">
-        <v>17.61368665196232</v>
+        <v>17.61368665196231</v>
       </c>
     </row>
     <row r="6968" spans="1:2">
@@ -56119,7 +56119,7 @@
         <v>6972</v>
       </c>
       <c r="B6972">
-        <v>155.5547805454756</v>
+        <v>155.5547805454755</v>
       </c>
     </row>
     <row r="6973" spans="1:2">
@@ -56167,7 +56167,7 @@
         <v>6978</v>
       </c>
       <c r="B6978">
-        <v>351.6820226121891</v>
+        <v>351.682022612189</v>
       </c>
     </row>
     <row r="6979" spans="1:2">
@@ -56303,7 +56303,7 @@
         <v>6995</v>
       </c>
       <c r="B6995">
-        <v>168.805401416471</v>
+        <v>168.8054014164709</v>
       </c>
     </row>
     <row r="6996" spans="1:2">
@@ -56407,7 +56407,7 @@
         <v>7008</v>
       </c>
       <c r="B7008">
-        <v>168.4399418312603</v>
+        <v>168.4399418312602</v>
       </c>
     </row>
     <row r="7009" spans="1:2">
@@ -56439,7 +56439,7 @@
         <v>7012</v>
       </c>
       <c r="B7012">
-        <v>62.47398261854285</v>
+        <v>62.47398261854284</v>
       </c>
     </row>
     <row r="7013" spans="1:2">
@@ -56455,7 +56455,7 @@
         <v>7014</v>
       </c>
       <c r="B7014">
-        <v>50.4997740422292</v>
+        <v>50.49977404222919</v>
       </c>
     </row>
     <row r="7015" spans="1:2">
@@ -56671,7 +56671,7 @@
         <v>7041</v>
       </c>
       <c r="B7041">
-        <v>68.0100652317518</v>
+        <v>68.01006523175178</v>
       </c>
     </row>
     <row r="7042" spans="1:2">
@@ -56719,7 +56719,7 @@
         <v>7047</v>
       </c>
       <c r="B7047">
-        <v>309.3147940501891</v>
+        <v>309.314794050189</v>
       </c>
     </row>
     <row r="7048" spans="1:2">
@@ -56839,7 +56839,7 @@
         <v>7062</v>
       </c>
       <c r="B7062">
-        <v>48.67007293365868</v>
+        <v>48.67007293365867</v>
       </c>
     </row>
     <row r="7063" spans="1:2">
@@ -56975,7 +56975,7 @@
         <v>7079</v>
       </c>
       <c r="B7079">
-        <v>208.7961169259662</v>
+        <v>208.7961169259661</v>
       </c>
     </row>
     <row r="7080" spans="1:2">
@@ -57031,7 +57031,7 @@
         <v>7086</v>
       </c>
       <c r="B7086">
-        <v>72.56937138020635</v>
+        <v>72.56937138020633</v>
       </c>
     </row>
     <row r="7087" spans="1:2">
@@ -57103,7 +57103,7 @@
         <v>7095</v>
       </c>
       <c r="B7095">
-        <v>325.367174050787</v>
+        <v>325.3671740507868</v>
       </c>
     </row>
     <row r="7096" spans="1:2">
@@ -57311,7 +57311,7 @@
         <v>7121</v>
       </c>
       <c r="B7121">
-        <v>420.1870848282399</v>
+        <v>420.1870848282398</v>
       </c>
     </row>
     <row r="7122" spans="1:2">
@@ -57327,7 +57327,7 @@
         <v>7123</v>
       </c>
       <c r="B7123">
-        <v>436.3657784465008</v>
+        <v>436.3657784465007</v>
       </c>
     </row>
     <row r="7124" spans="1:2">
@@ -57351,7 +57351,7 @@
         <v>7126</v>
       </c>
       <c r="B7126">
-        <v>293.4423596673293</v>
+        <v>293.4423596673292</v>
       </c>
     </row>
     <row r="7127" spans="1:2">
@@ -57471,7 +57471,7 @@
         <v>7141</v>
       </c>
       <c r="B7141">
-        <v>303.8592766655081</v>
+        <v>303.859276665508</v>
       </c>
     </row>
     <row r="7142" spans="1:2">
@@ -57511,7 +57511,7 @@
         <v>7146</v>
       </c>
       <c r="B7146">
-        <v>388.7481822268828</v>
+        <v>388.7481822268827</v>
       </c>
     </row>
     <row r="7147" spans="1:2">
@@ -57559,7 +57559,7 @@
         <v>7152</v>
       </c>
       <c r="B7152">
-        <v>58.3460770389978</v>
+        <v>58.34607703899779</v>
       </c>
     </row>
     <row r="7153" spans="1:2">
@@ -57599,7 +57599,7 @@
         <v>7157</v>
       </c>
       <c r="B7157">
-        <v>8.175714844223952</v>
+        <v>8.17571484422395</v>
       </c>
     </row>
     <row r="7158" spans="1:2">
@@ -57615,7 +57615,7 @@
         <v>7159</v>
       </c>
       <c r="B7159">
-        <v>8.001191040701121</v>
+        <v>8.001191040701119</v>
       </c>
     </row>
     <row r="7160" spans="1:2">
@@ -57767,7 +57767,7 @@
         <v>7178</v>
       </c>
       <c r="B7178">
-        <v>8.731084462487201</v>
+        <v>8.7310844624872</v>
       </c>
     </row>
     <row r="7179" spans="1:2">
@@ -57775,7 +57775,7 @@
         <v>7179</v>
       </c>
       <c r="B7179">
-        <v>5.877041459587556</v>
+        <v>5.877041459587555</v>
       </c>
     </row>
     <row r="7180" spans="1:2">
@@ -57831,7 +57831,7 @@
         <v>7186</v>
       </c>
       <c r="B7186">
-        <v>5.974018666280595</v>
+        <v>5.974018666280594</v>
       </c>
     </row>
     <row r="7187" spans="1:2">
@@ -57911,7 +57911,7 @@
         <v>7196</v>
       </c>
       <c r="B7196">
-        <v>153.2445015477082</v>
+        <v>153.2445015477081</v>
       </c>
     </row>
     <row r="7197" spans="1:2">
@@ -57927,7 +57927,7 @@
         <v>7198</v>
       </c>
       <c r="B7198">
-        <v>96.99654938159081</v>
+        <v>96.9965493815908</v>
       </c>
     </row>
     <row r="7199" spans="1:2">
@@ -57967,7 +57967,7 @@
         <v>7203</v>
       </c>
       <c r="B7203">
-        <v>9.537381504052297</v>
+        <v>9.537381504052291</v>
       </c>
     </row>
     <row r="7204" spans="1:2">
@@ -58431,7 +58431,7 @@
         <v>7261</v>
       </c>
       <c r="B7261">
-        <v>59.9064751701424</v>
+        <v>59.90647517014239</v>
       </c>
     </row>
     <row r="7262" spans="1:2">
@@ -58543,7 +58543,7 @@
         <v>7275</v>
       </c>
       <c r="B7275">
-        <v>3.140168257944717</v>
+        <v>3.140168257944716</v>
       </c>
     </row>
     <row r="7276" spans="1:2">
@@ -58615,7 +58615,7 @@
         <v>7284</v>
       </c>
       <c r="B7284">
-        <v>51.2011809590574</v>
+        <v>51.20118095905739</v>
       </c>
     </row>
     <row r="7285" spans="1:2">
@@ -58663,7 +58663,7 @@
         <v>7290</v>
       </c>
       <c r="B7290">
-        <v>176.4592446621507</v>
+        <v>176.4592446621506</v>
       </c>
     </row>
     <row r="7291" spans="1:2">
@@ -58687,7 +58687,7 @@
         <v>7293</v>
       </c>
       <c r="B7293">
-        <v>82.905107700676</v>
+        <v>82.90510770067598</v>
       </c>
     </row>
     <row r="7294" spans="1:2">
@@ -58751,7 +58751,7 @@
         <v>7301</v>
       </c>
       <c r="B7301">
-        <v>6.774512901280193</v>
+        <v>6.774512901280192</v>
       </c>
     </row>
     <row r="7302" spans="1:2">
@@ -58871,7 +58871,7 @@
         <v>7316</v>
       </c>
       <c r="B7316">
-        <v>55.43535409722105</v>
+        <v>55.43535409722104</v>
       </c>
     </row>
     <row r="7317" spans="1:2">
@@ -59039,7 +59039,7 @@
         <v>7337</v>
       </c>
       <c r="B7337">
-        <v>70.21571786871708</v>
+        <v>70.21571786871706</v>
       </c>
     </row>
     <row r="7338" spans="1:2">
@@ -59255,7 +59255,7 @@
         <v>7364</v>
       </c>
       <c r="B7364">
-        <v>71.97701619686403</v>
+        <v>71.97701619686401</v>
       </c>
     </row>
     <row r="7365" spans="1:2">
@@ -59319,7 +59319,7 @@
         <v>7372</v>
       </c>
       <c r="B7372">
-        <v>0.6587006050744665</v>
+        <v>0.6587006050744664</v>
       </c>
     </row>
     <row r="7373" spans="1:2">
@@ -59431,7 +59431,7 @@
         <v>7386</v>
       </c>
       <c r="B7386">
-        <v>32.00212652345653</v>
+        <v>32.00212652345652</v>
       </c>
     </row>
     <row r="7387" spans="1:2">
@@ -59551,7 +59551,7 @@
         <v>7401</v>
       </c>
       <c r="B7401">
-        <v>5.060838616915709</v>
+        <v>5.060838616915708</v>
       </c>
     </row>
     <row r="7402" spans="1:2">
@@ -59655,7 +59655,7 @@
         <v>7414</v>
       </c>
       <c r="B7414">
-        <v>117.1521290731746</v>
+        <v>117.1521290731745</v>
       </c>
     </row>
     <row r="7415" spans="1:2">
@@ -59711,7 +59711,7 @@
         <v>7421</v>
       </c>
       <c r="B7421">
-        <v>7.737749484048437</v>
+        <v>7.737749484048436</v>
       </c>
     </row>
     <row r="7422" spans="1:2">
@@ -59967,7 +59967,7 @@
         <v>7453</v>
       </c>
       <c r="B7453">
-        <v>128.5309931415516</v>
+        <v>128.5309931415515</v>
       </c>
     </row>
     <row r="7454" spans="1:2">
@@ -59999,7 +59999,7 @@
         <v>7457</v>
       </c>
       <c r="B7457">
-        <v>166.7163910528929</v>
+        <v>166.7163910528928</v>
       </c>
     </row>
     <row r="7458" spans="1:2">
@@ -60007,7 +60007,7 @@
         <v>7458</v>
       </c>
       <c r="B7458">
-        <v>123.1420028826468</v>
+        <v>123.1420028826467</v>
       </c>
     </row>
     <row r="7459" spans="1:2">
@@ -60063,7 +60063,7 @@
         <v>7465</v>
       </c>
       <c r="B7465">
-        <v>26.6453447717006</v>
+        <v>26.64534477170059</v>
       </c>
     </row>
     <row r="7466" spans="1:2">
@@ -60255,7 +60255,7 @@
         <v>7489</v>
       </c>
       <c r="B7489">
-        <v>6.973771900466042</v>
+        <v>6.973771900466041</v>
       </c>
     </row>
     <row r="7490" spans="1:2">
@@ -60319,7 +60319,7 @@
         <v>7497</v>
       </c>
       <c r="B7497">
-        <v>5.372783430466845</v>
+        <v>5.372783430466844</v>
       </c>
     </row>
     <row r="7498" spans="1:2">
@@ -60335,7 +60335,7 @@
         <v>7499</v>
       </c>
       <c r="B7499">
-        <v>7.908375442757072</v>
+        <v>7.908375442757071</v>
       </c>
     </row>
     <row r="7500" spans="1:2">
@@ -60359,7 +60359,7 @@
         <v>7502</v>
       </c>
       <c r="B7502">
-        <v>11.90234755763389</v>
+        <v>11.90234755763388</v>
       </c>
     </row>
     <row r="7503" spans="1:2">
@@ -60407,7 +60407,7 @@
         <v>7508</v>
       </c>
       <c r="B7508">
-        <v>8.139374035429945</v>
+        <v>8.139374035429944</v>
       </c>
     </row>
     <row r="7509" spans="1:2">
@@ -60423,7 +60423,7 @@
         <v>7510</v>
       </c>
       <c r="B7510">
-        <v>2.155833491103243</v>
+        <v>2.155833491103242</v>
       </c>
     </row>
     <row r="7511" spans="1:2">
@@ -60559,7 +60559,7 @@
         <v>7527</v>
       </c>
       <c r="B7527">
-        <v>8.125643657268661</v>
+        <v>8.125643657268659</v>
       </c>
     </row>
     <row r="7528" spans="1:2">
@@ -60727,7 +60727,7 @@
         <v>7548</v>
       </c>
       <c r="B7548">
-        <v>25.52517157843959</v>
+        <v>25.52517157843958</v>
       </c>
     </row>
     <row r="7549" spans="1:2">
@@ -60759,7 +60759,7 @@
         <v>7552</v>
       </c>
       <c r="B7552">
-        <v>42.85843613776918</v>
+        <v>42.85843613776917</v>
       </c>
     </row>
     <row r="7553" spans="1:2">
@@ -61519,7 +61519,7 @@
         <v>7647</v>
       </c>
       <c r="B7647">
-        <v>56.01091631004806</v>
+        <v>56.01091631004805</v>
       </c>
     </row>
     <row r="7648" spans="1:2">
@@ -61551,7 +61551,7 @@
         <v>7651</v>
       </c>
       <c r="B7651">
-        <v>47.74525796405895</v>
+        <v>47.74525796405894</v>
       </c>
     </row>
     <row r="7652" spans="1:2">
@@ -61567,7 +61567,7 @@
         <v>7653</v>
       </c>
       <c r="B7653">
-        <v>27.54817941340074</v>
+        <v>27.54817941340073</v>
       </c>
     </row>
     <row r="7654" spans="1:2">
@@ -61663,7 +61663,7 @@
         <v>7665</v>
       </c>
       <c r="B7665">
-        <v>5.802161809209582</v>
+        <v>5.802161809209581</v>
       </c>
     </row>
     <row r="7666" spans="1:2">
@@ -61927,7 +61927,7 @@
         <v>7698</v>
       </c>
       <c r="B7698">
-        <v>3.919590685264565</v>
+        <v>3.919590685264564</v>
       </c>
     </row>
     <row r="7699" spans="1:2">
@@ -62111,7 +62111,7 @@
         <v>7721</v>
       </c>
       <c r="B7721">
-        <v>38.06078410570252</v>
+        <v>38.06078410570251</v>
       </c>
     </row>
     <row r="7722" spans="1:2">
@@ -62303,7 +62303,7 @@
         <v>7745</v>
       </c>
       <c r="B7745">
-        <v>58.52901198133021</v>
+        <v>58.5290119813302</v>
       </c>
     </row>
     <row r="7746" spans="1:2">
@@ -62327,7 +62327,7 @@
         <v>7748</v>
       </c>
       <c r="B7748">
-        <v>97.70607436618994</v>
+        <v>97.70607436618991</v>
       </c>
     </row>
     <row r="7749" spans="1:2">
@@ -62399,7 +62399,7 @@
         <v>7757</v>
       </c>
       <c r="B7757">
-        <v>6.01197136578724</v>
+        <v>6.011971365787239</v>
       </c>
     </row>
     <row r="7758" spans="1:2">
@@ -62447,7 +62447,7 @@
         <v>7763</v>
       </c>
       <c r="B7763">
-        <v>37.656316765246</v>
+        <v>37.65631676524599</v>
       </c>
     </row>
     <row r="7764" spans="1:2">
@@ -62567,7 +62567,7 @@
         <v>7778</v>
       </c>
       <c r="B7778">
-        <v>7.02497141092018</v>
+        <v>7.024971410920179</v>
       </c>
     </row>
     <row r="7779" spans="1:2">
@@ -62703,7 +62703,7 @@
         <v>7795</v>
       </c>
       <c r="B7795">
-        <v>123.9728592772517</v>
+        <v>123.9728592772516</v>
       </c>
     </row>
     <row r="7796" spans="1:2">
@@ -62735,7 +62735,7 @@
         <v>7799</v>
       </c>
       <c r="B7799">
-        <v>48.76151109772103</v>
+        <v>48.76151109772102</v>
       </c>
     </row>
     <row r="7800" spans="1:2">
@@ -62935,7 +62935,7 @@
         <v>7824</v>
       </c>
       <c r="B7824">
-        <v>69.96865898312556</v>
+        <v>69.96865898312555</v>
       </c>
     </row>
     <row r="7825" spans="1:2">
@@ -62959,7 +62959,7 @@
         <v>7827</v>
       </c>
       <c r="B7827">
-        <v>62.38102048507947</v>
+        <v>62.38102048507946</v>
       </c>
     </row>
     <row r="7828" spans="1:2">
@@ -62983,7 +62983,7 @@
         <v>7830</v>
       </c>
       <c r="B7830">
-        <v>45.96983361184851</v>
+        <v>45.9698336118485</v>
       </c>
     </row>
     <row r="7831" spans="1:2">
@@ -62991,7 +62991,7 @@
         <v>7831</v>
       </c>
       <c r="B7831">
-        <v>57.80922951037795</v>
+        <v>57.80922951037794</v>
       </c>
     </row>
     <row r="7832" spans="1:2">
@@ -63167,7 +63167,7 @@
         <v>7853</v>
       </c>
       <c r="B7853">
-        <v>108.1185952987889</v>
+        <v>108.1185952987888</v>
       </c>
     </row>
     <row r="7854" spans="1:2">
@@ -63247,7 +63247,7 @@
         <v>7863</v>
       </c>
       <c r="B7863">
-        <v>314.862921883087</v>
+        <v>314.8629218830869</v>
       </c>
     </row>
     <row r="7864" spans="1:2">
@@ -63335,7 +63335,7 @@
         <v>7874</v>
       </c>
       <c r="B7874">
-        <v>157.4304351929082</v>
+        <v>157.4304351929081</v>
       </c>
     </row>
     <row r="7875" spans="1:2">
@@ -63359,7 +63359,7 @@
         <v>7877</v>
       </c>
       <c r="B7877">
-        <v>97.85759209317784</v>
+        <v>97.85759209317783</v>
       </c>
     </row>
     <row r="7878" spans="1:2">
@@ -63375,7 +63375,7 @@
         <v>7879</v>
       </c>
       <c r="B7879">
-        <v>80.97816562147767</v>
+        <v>80.97816562147766</v>
       </c>
     </row>
     <row r="7880" spans="1:2">
@@ -63431,7 +63431,7 @@
         <v>7886</v>
       </c>
       <c r="B7886">
-        <v>103.1223202316903</v>
+        <v>103.1223202316902</v>
       </c>
     </row>
     <row r="7887" spans="1:2">
@@ -63527,7 +63527,7 @@
         <v>7898</v>
       </c>
       <c r="B7898">
-        <v>4.462548745040506</v>
+        <v>4.462548745040505</v>
       </c>
     </row>
     <row r="7899" spans="1:2">
@@ -63647,7 +63647,7 @@
         <v>7913</v>
       </c>
       <c r="B7913">
-        <v>46.45595054367609</v>
+        <v>46.45595054367608</v>
       </c>
     </row>
     <row r="7914" spans="1:2">
@@ -63719,7 +63719,7 @@
         <v>7922</v>
       </c>
       <c r="B7922">
-        <v>5.894361957972442</v>
+        <v>5.894361957972441</v>
       </c>
     </row>
     <row r="7923" spans="1:2">
@@ -63799,7 +63799,7 @@
         <v>7932</v>
       </c>
       <c r="B7932">
-        <v>41.49918145258902</v>
+        <v>41.49918145258901</v>
       </c>
     </row>
     <row r="7933" spans="1:2">
@@ -63831,7 +63831,7 @@
         <v>7936</v>
       </c>
       <c r="B7936">
-        <v>99.50054833591335</v>
+        <v>99.50054833591334</v>
       </c>
     </row>
     <row r="7937" spans="1:2">
@@ -63951,7 +63951,7 @@
         <v>7951</v>
       </c>
       <c r="B7951">
-        <v>39.00620196932016</v>
+        <v>39.00620196932015</v>
       </c>
     </row>
     <row r="7952" spans="1:2">
@@ -64015,7 +64015,7 @@
         <v>7959</v>
       </c>
       <c r="B7959">
-        <v>229.9145229008641</v>
+        <v>229.914522900864</v>
       </c>
     </row>
     <row r="7960" spans="1:2">
@@ -64167,7 +64167,7 @@
         <v>7978</v>
       </c>
       <c r="B7978">
-        <v>34.14752375487304</v>
+        <v>34.14752375487303</v>
       </c>
     </row>
     <row r="7979" spans="1:2">
@@ -64207,7 +64207,7 @@
         <v>7983</v>
       </c>
       <c r="B7983">
-        <v>174.1574647245045</v>
+        <v>174.1574647245044</v>
       </c>
     </row>
     <row r="7984" spans="1:2">
@@ -64279,7 +64279,7 @@
         <v>7992</v>
       </c>
       <c r="B7992">
-        <v>56.19528730046992</v>
+        <v>56.19528730046991</v>
       </c>
     </row>
     <row r="7993" spans="1:2">
@@ -64375,7 +64375,7 @@
         <v>8004</v>
       </c>
       <c r="B8004">
-        <v>25.93409066797338</v>
+        <v>25.93409066797337</v>
       </c>
     </row>
     <row r="8005" spans="1:2">
@@ -64559,7 +64559,7 @@
         <v>8027</v>
       </c>
       <c r="B8027">
-        <v>0.7252529349599167</v>
+        <v>0.7252529349599166</v>
       </c>
     </row>
     <row r="8028" spans="1:2">
@@ -64575,7 +64575,7 @@
         <v>8029</v>
       </c>
       <c r="B8029">
-        <v>21.76937243526208</v>
+        <v>21.76937243526207</v>
       </c>
     </row>
     <row r="8030" spans="1:2">
@@ -64935,7 +64935,7 @@
         <v>8074</v>
       </c>
       <c r="B8074">
-        <v>6.581818693360359</v>
+        <v>6.581818693360358</v>
       </c>
     </row>
     <row r="8075" spans="1:2">
@@ -65143,7 +65143,7 @@
         <v>8100</v>
       </c>
       <c r="B8100">
-        <v>17.16795490926228</v>
+        <v>17.16795490926227</v>
       </c>
     </row>
     <row r="8101" spans="1:2">
@@ -65295,7 +65295,7 @@
         <v>8119</v>
       </c>
       <c r="B8119">
-        <v>12.19448076897152</v>
+        <v>12.19448076897151</v>
       </c>
     </row>
     <row r="8120" spans="1:2">
@@ -65359,7 +65359,7 @@
         <v>8127</v>
       </c>
       <c r="B8127">
-        <v>45.64912597424141</v>
+        <v>45.6491259742414</v>
       </c>
     </row>
     <row r="8128" spans="1:2">
@@ -65367,7 +65367,7 @@
         <v>8128</v>
       </c>
       <c r="B8128">
-        <v>38.53840197740892</v>
+        <v>38.53840197740891</v>
       </c>
     </row>
     <row r="8129" spans="1:2">
@@ -65759,7 +65759,7 @@
         <v>8177</v>
       </c>
       <c r="B8177">
-        <v>7.848237265623764</v>
+        <v>7.848237265623763</v>
       </c>
     </row>
     <row r="8178" spans="1:2">
@@ -66247,7 +66247,7 @@
         <v>8238</v>
       </c>
       <c r="B8238">
-        <v>0.0757934458765198</v>
+        <v>0.0757934458765197</v>
       </c>
     </row>
     <row r="8239" spans="1:2">
@@ -66271,7 +66271,7 @@
         <v>8241</v>
       </c>
       <c r="B8241">
-        <v>6.85900528172626</v>
+        <v>6.859005281726259</v>
       </c>
     </row>
     <row r="8242" spans="1:2">
@@ -66279,7 +66279,7 @@
         <v>8242</v>
       </c>
       <c r="B8242">
-        <v>3.945761929017023</v>
+        <v>3.945761929017022</v>
       </c>
     </row>
     <row r="8243" spans="1:2">
@@ -66287,7 +66287,7 @@
         <v>8243</v>
       </c>
       <c r="B8243">
-        <v>8.518490731042261</v>
+        <v>8.51849073104226</v>
       </c>
     </row>
     <row r="8244" spans="1:2">
@@ -66359,7 +66359,7 @@
         <v>8252</v>
       </c>
       <c r="B8252">
-        <v>5.626289878908909</v>
+        <v>5.626289878908908</v>
       </c>
     </row>
     <row r="8253" spans="1:2">
@@ -66687,7 +66687,7 @@
         <v>8293</v>
       </c>
       <c r="B8293">
-        <v>7.748886183517568</v>
+        <v>7.748886183517567</v>
       </c>
     </row>
     <row r="8294" spans="1:2">
@@ -66735,7 +66735,7 @@
         <v>8299</v>
       </c>
       <c r="B8299">
-        <v>8.114521611351464</v>
+        <v>8.114521611351462</v>
       </c>
     </row>
     <row r="8300" spans="1:2">
@@ -66751,7 +66751,7 @@
         <v>8301</v>
       </c>
       <c r="B8301">
-        <v>0.7783409951871875</v>
+        <v>0.7783409951871874</v>
       </c>
     </row>
     <row r="8302" spans="1:2">
@@ -66839,7 +66839,7 @@
         <v>8312</v>
       </c>
       <c r="B8312">
-        <v>8.451494691604278</v>
+        <v>8.451494691604276</v>
       </c>
     </row>
     <row r="8313" spans="1:2">
@@ -66943,7 +66943,7 @@
         <v>8325</v>
       </c>
       <c r="B8325">
-        <v>0.9477243326918986</v>
+        <v>0.9477243326918984</v>
       </c>
     </row>
     <row r="8326" spans="1:2">
@@ -67031,7 +67031,7 @@
         <v>8336</v>
       </c>
       <c r="B8336">
-        <v>8.376966726472698</v>
+        <v>8.376966726472697</v>
       </c>
     </row>
     <row r="8337" spans="1:2">
@@ -67263,7 +67263,7 @@
         <v>8365</v>
       </c>
       <c r="B8365">
-        <v>28.24485616366494</v>
+        <v>28.24485616366493</v>
       </c>
     </row>
     <row r="8366" spans="1:2">
@@ -67711,7 +67711,7 @@
         <v>8421</v>
       </c>
       <c r="B8421">
-        <v>9.810456305745777</v>
+        <v>9.810456305745776</v>
       </c>
     </row>
     <row r="8422" spans="1:2">
@@ -67719,7 +67719,7 @@
         <v>8422</v>
       </c>
       <c r="B8422">
-        <v>6.593497574251013</v>
+        <v>6.593497574251012</v>
       </c>
     </row>
     <row r="8423" spans="1:2">
@@ -67807,7 +67807,7 @@
         <v>8433</v>
       </c>
       <c r="B8433">
-        <v>7.13270432473209</v>
+        <v>7.132704324732089</v>
       </c>
     </row>
     <row r="8434" spans="1:2">
@@ -67815,7 +67815,7 @@
         <v>8434</v>
       </c>
       <c r="B8434">
-        <v>9.949058392059886</v>
+        <v>9.949058392059884</v>
       </c>
     </row>
     <row r="8435" spans="1:2">
@@ -67847,7 +67847,7 @@
         <v>8438</v>
       </c>
       <c r="B8438">
-        <v>45.9593709757683</v>
+        <v>45.95937097576829</v>
       </c>
     </row>
     <row r="8439" spans="1:2">
@@ -68111,7 +68111,7 @@
         <v>8471</v>
       </c>
       <c r="B8471">
-        <v>3.918594243733116</v>
+        <v>3.918594243733115</v>
       </c>
     </row>
     <row r="8472" spans="1:2">
@@ -68375,7 +68375,7 @@
         <v>8504</v>
       </c>
       <c r="B8504">
-        <v>8.462455548450212</v>
+        <v>8.46245554845021</v>
       </c>
     </row>
     <row r="8505" spans="1:2">
@@ -68383,7 +68383,7 @@
         <v>8505</v>
       </c>
       <c r="B8505">
-        <v>2.567744835941764</v>
+        <v>2.567744835941763</v>
       </c>
     </row>
     <row r="8506" spans="1:2">
@@ -68415,7 +68415,7 @@
         <v>8509</v>
       </c>
       <c r="B8509">
-        <v>8.64078927547564</v>
+        <v>8.640789275475639</v>
       </c>
     </row>
     <row r="8510" spans="1:2">
@@ -68431,7 +68431,7 @@
         <v>8511</v>
       </c>
       <c r="B8511">
-        <v>12.73633981235248</v>
+        <v>12.73633981235247</v>
       </c>
     </row>
     <row r="8512" spans="1:2">
@@ -68799,7 +68799,7 @@
         <v>8557</v>
       </c>
       <c r="B8557">
-        <v>0.1998442620500554</v>
+        <v>0.1998442620500553</v>
       </c>
     </row>
     <row r="8558" spans="1:2">
@@ -68983,7 +68983,7 @@
         <v>8580</v>
       </c>
       <c r="B8580">
-        <v>7.564163507849322</v>
+        <v>7.564163507849321</v>
       </c>
     </row>
     <row r="8581" spans="1:2">
@@ -69039,7 +69039,7 @@
         <v>8587</v>
       </c>
       <c r="B8587">
-        <v>5.36812360095213</v>
+        <v>5.368123600952129</v>
       </c>
     </row>
     <row r="8588" spans="1:2">
@@ -69335,7 +69335,7 @@
         <v>8624</v>
       </c>
       <c r="B8624">
-        <v>7.938913444985585</v>
+        <v>7.938913444985584</v>
       </c>
     </row>
     <row r="8625" spans="1:2">
@@ -69351,7 +69351,7 @@
         <v>8626</v>
       </c>
       <c r="B8626">
-        <v>6.186612397725535</v>
+        <v>6.186612397725534</v>
       </c>
     </row>
     <row r="8627" spans="1:2">
@@ -69439,7 +69439,7 @@
         <v>8637</v>
       </c>
       <c r="B8637">
-        <v>3.919502763952966</v>
+        <v>3.919502763952965</v>
       </c>
     </row>
     <row r="8638" spans="1:2">
@@ -69527,7 +69527,7 @@
         <v>8648</v>
       </c>
       <c r="B8648">
-        <v>8.566847452421383</v>
+        <v>8.566847452421381</v>
       </c>
     </row>
     <row r="8649" spans="1:2">
@@ -69543,7 +69543,7 @@
         <v>8650</v>
       </c>
       <c r="B8650">
-        <v>5.096827740463322</v>
+        <v>5.096827740463321</v>
       </c>
     </row>
     <row r="8651" spans="1:2">
@@ -69551,7 +69551,7 @@
         <v>8651</v>
       </c>
       <c r="B8651">
-        <v>8.668660331252335</v>
+        <v>8.668660331252333</v>
       </c>
     </row>
     <row r="8652" spans="1:2">
@@ -69583,7 +69583,7 @@
         <v>8655</v>
       </c>
       <c r="B8655">
-        <v>28.59420856459081</v>
+        <v>28.5942085645908</v>
       </c>
     </row>
     <row r="8656" spans="1:2">
@@ -69863,7 +69863,7 @@
         <v>8690</v>
       </c>
       <c r="B8690">
-        <v>3.918975236083376</v>
+        <v>3.918975236083375</v>
       </c>
     </row>
     <row r="8691" spans="1:2">
@@ -69975,7 +69975,7 @@
         <v>8704</v>
       </c>
       <c r="B8704">
-        <v>9.899690575597383</v>
+        <v>9.899690575597381</v>
       </c>
     </row>
     <row r="8705" spans="1:2">
@@ -70047,7 +70047,7 @@
         <v>8713</v>
       </c>
       <c r="B8713">
-        <v>0.3513452839887672</v>
+        <v>0.3513452839887671</v>
       </c>
     </row>
     <row r="8714" spans="1:2">
@@ -70143,7 +70143,7 @@
         <v>8725</v>
       </c>
       <c r="B8725">
-        <v>46.91384473448058</v>
+        <v>46.91384473448057</v>
       </c>
     </row>
     <row r="8726" spans="1:2">
@@ -70175,7 +70175,7 @@
         <v>8729</v>
       </c>
       <c r="B8729">
-        <v>59.62457013805405</v>
+        <v>59.62457013805404</v>
       </c>
     </row>
     <row r="8730" spans="1:2">
@@ -70207,7 +70207,7 @@
         <v>8733</v>
       </c>
       <c r="B8733">
-        <v>62.40859846981751</v>
+        <v>62.40859846981749</v>
       </c>
     </row>
     <row r="8734" spans="1:2">
@@ -70215,7 +70215,7 @@
         <v>8734</v>
       </c>
       <c r="B8734">
-        <v>32.3747077349067</v>
+        <v>32.37470773490669</v>
       </c>
     </row>
     <row r="8735" spans="1:2">
@@ -70407,7 +70407,7 @@
         <v>8758</v>
       </c>
       <c r="B8758">
-        <v>9.383152869956762</v>
+        <v>9.38315286995676</v>
       </c>
     </row>
     <row r="8759" spans="1:2">
@@ -70415,7 +70415,7 @@
         <v>8759</v>
       </c>
       <c r="B8759">
-        <v>3.918535629525384</v>
+        <v>3.918535629525383</v>
       </c>
     </row>
     <row r="8760" spans="1:2">
